--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -5802,28 +5802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>22328.09635047023</v>
+        <v>23169.73835262629</v>
       </c>
       <c r="AB2" t="n">
-        <v>30550.28647280524</v>
+        <v>31701.85819077982</v>
       </c>
       <c r="AC2" t="n">
-        <v>27634.61000943578</v>
+        <v>28676.27733888787</v>
       </c>
       <c r="AD2" t="n">
-        <v>22328096.35047023</v>
+        <v>23169738.35262629</v>
       </c>
       <c r="AE2" t="n">
-        <v>30550286.47280524</v>
+        <v>31701858.19077982</v>
       </c>
       <c r="AF2" t="n">
         <v>9.420880543726548e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>167</v>
+        <v>166.5833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>27634610.00943578</v>
+        <v>28676277.33888787</v>
       </c>
     </row>
     <row r="3">
@@ -5908,28 +5908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7600.538434280938</v>
+        <v>8040.886240801347</v>
       </c>
       <c r="AB3" t="n">
-        <v>10399.39199787436</v>
+        <v>11001.89529352977</v>
       </c>
       <c r="AC3" t="n">
-        <v>9406.888621235172</v>
+        <v>9951.889847971894</v>
       </c>
       <c r="AD3" t="n">
-        <v>7600538.434280938</v>
+        <v>8040886.240801347</v>
       </c>
       <c r="AE3" t="n">
-        <v>10399391.99787436</v>
+        <v>11001895.29352977</v>
       </c>
       <c r="AF3" t="n">
         <v>1.778327750777011e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>89</v>
+        <v>88.26666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>9406888.621235171</v>
+        <v>9951889.847971894</v>
       </c>
     </row>
     <row r="4">
@@ -6014,28 +6014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5880.153300306147</v>
+        <v>6261.735813785687</v>
       </c>
       <c r="AB4" t="n">
-        <v>8045.485159534416</v>
+        <v>8567.583188709545</v>
       </c>
       <c r="AC4" t="n">
-        <v>7277.635347817488</v>
+        <v>7749.905073857311</v>
       </c>
       <c r="AD4" t="n">
-        <v>5880153.300306147</v>
+        <v>6261735.813785687</v>
       </c>
       <c r="AE4" t="n">
-        <v>8045485.159534416</v>
+        <v>8567583.188709544</v>
       </c>
       <c r="AF4" t="n">
         <v>2.085702341887801e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>76</v>
+        <v>75.25</v>
       </c>
       <c r="AH4" t="n">
-        <v>7277635.347817488</v>
+        <v>7749905.07385731</v>
       </c>
     </row>
     <row r="5">
@@ -6120,28 +6120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5199.696000797927</v>
+        <v>5552.014435692907</v>
       </c>
       <c r="AB5" t="n">
-        <v>7114.453462689842</v>
+        <v>7596.511088505545</v>
       </c>
       <c r="AC5" t="n">
-        <v>6435.460009408602</v>
+        <v>6871.510731988562</v>
       </c>
       <c r="AD5" t="n">
-        <v>5199696.000797926</v>
+        <v>5552014.435692906</v>
       </c>
       <c r="AE5" t="n">
-        <v>7114453.462689842</v>
+        <v>7596511.088505545</v>
       </c>
       <c r="AF5" t="n">
         <v>2.248806751141443e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>70</v>
+        <v>69.78750000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>6435460.009408602</v>
+        <v>6871510.731988562</v>
       </c>
     </row>
     <row r="6">
@@ -6226,28 +6226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4829.57764136339</v>
+        <v>5172.07338956924</v>
       </c>
       <c r="AB6" t="n">
-        <v>6608.041194841868</v>
+        <v>7076.65898738315</v>
       </c>
       <c r="AC6" t="n">
-        <v>5977.379017649976</v>
+        <v>6401.272585780304</v>
       </c>
       <c r="AD6" t="n">
-        <v>4829577.641363391</v>
+        <v>5172073.38956924</v>
       </c>
       <c r="AE6" t="n">
-        <v>6608041.194841867</v>
+        <v>7076658.98738315</v>
       </c>
       <c r="AF6" t="n">
         <v>2.351264948178373e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>67</v>
+        <v>66.75833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>5977379.017649976</v>
+        <v>6401272.585780304</v>
       </c>
     </row>
     <row r="7">
@@ -6332,28 +6332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4594.410291279657</v>
+        <v>4927.117518215158</v>
       </c>
       <c r="AB7" t="n">
-        <v>6286.274851606019</v>
+        <v>6741.499557506128</v>
       </c>
       <c r="AC7" t="n">
-        <v>5686.321602610669</v>
+        <v>6098.100301491542</v>
       </c>
       <c r="AD7" t="n">
-        <v>4594410.291279657</v>
+        <v>4927117.518215158</v>
       </c>
       <c r="AE7" t="n">
-        <v>6286274.851606019</v>
+        <v>6741499.557506127</v>
       </c>
       <c r="AF7" t="n">
         <v>2.419444851353684e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>65</v>
+        <v>64.86666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>5686321.602610669</v>
+        <v>6098100.301491543</v>
       </c>
     </row>
     <row r="8">
@@ -6438,28 +6438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4426.102852534613</v>
+        <v>4749.055723618547</v>
       </c>
       <c r="AB8" t="n">
-        <v>6055.989188714883</v>
+        <v>6497.867554607068</v>
       </c>
       <c r="AC8" t="n">
-        <v>5478.014080177916</v>
+        <v>5877.720195009515</v>
       </c>
       <c r="AD8" t="n">
-        <v>4426102.852534613</v>
+        <v>4749055.723618547</v>
       </c>
       <c r="AE8" t="n">
-        <v>6055989.188714883</v>
+        <v>6497867.554607068</v>
       </c>
       <c r="AF8" t="n">
         <v>2.470673949872148e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>64</v>
+        <v>63.52916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>5478014.080177916</v>
+        <v>5877720.195009515</v>
       </c>
     </row>
     <row r="9">
@@ -6544,28 +6544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4295.205833223961</v>
+        <v>4608.404348456329</v>
       </c>
       <c r="AB9" t="n">
-        <v>5876.890112125111</v>
+        <v>6305.422138009373</v>
       </c>
       <c r="AC9" t="n">
-        <v>5316.007968090745</v>
+        <v>5703.641498873073</v>
       </c>
       <c r="AD9" t="n">
-        <v>4295205.833223961</v>
+        <v>4608404.348456329</v>
       </c>
       <c r="AE9" t="n">
-        <v>5876890.112125111</v>
+        <v>6305422.138009373</v>
       </c>
       <c r="AF9" t="n">
         <v>2.509472458308927e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>63</v>
+        <v>62.54166666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>5316007.968090745</v>
+        <v>5703641.498873073</v>
       </c>
     </row>
     <row r="10">
@@ -6650,28 +6650,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4190.10519144727</v>
+        <v>4503.269541260856</v>
       </c>
       <c r="AB10" t="n">
-        <v>5733.086777333163</v>
+        <v>6161.572056584176</v>
       </c>
       <c r="AC10" t="n">
-        <v>5185.929021742096</v>
+        <v>5573.520267324244</v>
       </c>
       <c r="AD10" t="n">
-        <v>4190105.19144727</v>
+        <v>4503269.541260856</v>
       </c>
       <c r="AE10" t="n">
-        <v>5733086.777333163</v>
+        <v>6161572.056584176</v>
       </c>
       <c r="AF10" t="n">
         <v>2.539230537595389e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>62</v>
+        <v>61.81666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>5185929.021742096</v>
+        <v>5573520.267324244</v>
       </c>
     </row>
     <row r="11">
@@ -6756,28 +6756,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>4103.171875245373</v>
+        <v>4406.514549399685</v>
       </c>
       <c r="AB11" t="n">
-        <v>5614.140778878482</v>
+        <v>6029.187608190731</v>
       </c>
       <c r="AC11" t="n">
-        <v>5078.335062438179</v>
+        <v>5453.770404882735</v>
       </c>
       <c r="AD11" t="n">
-        <v>4103171.875245373</v>
+        <v>4406514.549399685</v>
       </c>
       <c r="AE11" t="n">
-        <v>5614140.778878482</v>
+        <v>6029187.608190731</v>
       </c>
       <c r="AF11" t="n">
         <v>2.564468402306691e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>62</v>
+        <v>61.20416666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>5078335.062438179</v>
+        <v>5453770.404882735</v>
       </c>
     </row>
     <row r="12">
@@ -6862,28 +6862,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>4022.91975108172</v>
+        <v>4336.049935476525</v>
       </c>
       <c r="AB12" t="n">
-        <v>5504.336282123924</v>
+        <v>5932.77481474169</v>
       </c>
       <c r="AC12" t="n">
-        <v>4979.0101527423</v>
+        <v>5366.559113124268</v>
       </c>
       <c r="AD12" t="n">
-        <v>4022919.75108172</v>
+        <v>4336049.935476525</v>
       </c>
       <c r="AE12" t="n">
-        <v>5504336.282123924</v>
+        <v>5932774.81474169</v>
       </c>
       <c r="AF12" t="n">
         <v>2.584055998799045e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>61</v>
+        <v>60.74166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>4979010.1527423</v>
+        <v>5366559.113124268</v>
       </c>
     </row>
     <row r="13">
@@ -6968,28 +6968,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3952.65256076301</v>
+        <v>4255.961069498543</v>
       </c>
       <c r="AB13" t="n">
-        <v>5408.193612360207</v>
+        <v>5823.193695039207</v>
       </c>
       <c r="AC13" t="n">
-        <v>4892.043204443753</v>
+        <v>5267.436261688128</v>
       </c>
       <c r="AD13" t="n">
-        <v>3952652.56076301</v>
+        <v>4255961.069498543</v>
       </c>
       <c r="AE13" t="n">
-        <v>5408193.612360207</v>
+        <v>5823193.695039207</v>
       </c>
       <c r="AF13" t="n">
         <v>2.60138348800382e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>61</v>
+        <v>60.33333333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>4892043.204443753</v>
+        <v>5267436.261688128</v>
       </c>
     </row>
     <row r="14">
@@ -7074,28 +7074,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3883.879711317287</v>
+        <v>4187.255539860525</v>
       </c>
       <c r="AB14" t="n">
-        <v>5314.095565704579</v>
+        <v>5729.18775831442</v>
       </c>
       <c r="AC14" t="n">
-        <v>4806.925743293503</v>
+        <v>5182.402119626197</v>
       </c>
       <c r="AD14" t="n">
-        <v>3883879.711317287</v>
+        <v>4187255.539860525</v>
       </c>
       <c r="AE14" t="n">
-        <v>5314095.565704579</v>
+        <v>5729187.75831442</v>
       </c>
       <c r="AF14" t="n">
         <v>2.616450869921016e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>60</v>
+        <v>59.9875</v>
       </c>
       <c r="AH14" t="n">
-        <v>4806925.743293502</v>
+        <v>5182402.119626196</v>
       </c>
     </row>
     <row r="15">
@@ -7180,28 +7180,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3830.80865914068</v>
+        <v>4134.184487683918</v>
       </c>
       <c r="AB15" t="n">
-        <v>5241.481410786962</v>
+        <v>5656.573603396803</v>
       </c>
       <c r="AC15" t="n">
-        <v>4741.241781406619</v>
+        <v>5116.718157739312</v>
       </c>
       <c r="AD15" t="n">
-        <v>3830808.65914068</v>
+        <v>4134184.487683918</v>
       </c>
       <c r="AE15" t="n">
-        <v>5241481.410786961</v>
+        <v>5656573.603396803</v>
       </c>
       <c r="AF15" t="n">
         <v>2.628128090906842e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>60</v>
+        <v>59.72083333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>4741241.78140662</v>
+        <v>5116718.157739312</v>
       </c>
     </row>
     <row r="16">
@@ -7286,28 +7286,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>3774.417759488277</v>
+        <v>4077.692102805029</v>
       </c>
       <c r="AB16" t="n">
-        <v>5164.324894091625</v>
+        <v>5579.278230137378</v>
       </c>
       <c r="AC16" t="n">
-        <v>4671.448974374837</v>
+        <v>5046.799746419032</v>
       </c>
       <c r="AD16" t="n">
-        <v>3774417.759488277</v>
+        <v>4077692.102805029</v>
       </c>
       <c r="AE16" t="n">
-        <v>5164324.894091625</v>
+        <v>5579278.230137378</v>
       </c>
       <c r="AF16" t="n">
         <v>2.639051942796809e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>60</v>
+        <v>59.47083333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>4671448.974374837</v>
+        <v>5046799.746419032</v>
       </c>
     </row>
     <row r="17">
@@ -7392,28 +7392,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>3719.178231679134</v>
+        <v>4012.732384563099</v>
       </c>
       <c r="AB17" t="n">
-        <v>5088.743735147179</v>
+        <v>5490.397477818256</v>
       </c>
       <c r="AC17" t="n">
-        <v>4603.081175161229</v>
+        <v>4966.401648356331</v>
       </c>
       <c r="AD17" t="n">
-        <v>3719178.231679134</v>
+        <v>4012732.3845631</v>
       </c>
       <c r="AE17" t="n">
-        <v>5088743.735147179</v>
+        <v>5490397.477818255</v>
       </c>
       <c r="AF17" t="n">
         <v>2.648469056495056e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>60</v>
+        <v>59.25833333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>4603081.175161229</v>
+        <v>4966401.648356331</v>
       </c>
     </row>
     <row r="18">
@@ -7498,28 +7498,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>3668.513414705824</v>
+        <v>3962.067567589789</v>
       </c>
       <c r="AB18" t="n">
-        <v>5019.421897390318</v>
+        <v>5421.075640061395</v>
       </c>
       <c r="AC18" t="n">
-        <v>4540.375316306076</v>
+        <v>4903.695789501177</v>
       </c>
       <c r="AD18" t="n">
-        <v>3668513.414705824</v>
+        <v>3962067.567589789</v>
       </c>
       <c r="AE18" t="n">
-        <v>5019421.897390318</v>
+        <v>5421075.640061394</v>
       </c>
       <c r="AF18" t="n">
         <v>2.657886170193304e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>60</v>
+        <v>59.05</v>
       </c>
       <c r="AH18" t="n">
-        <v>4540375.316306076</v>
+        <v>4903695.789501177</v>
       </c>
     </row>
     <row r="19">
@@ -7604,28 +7604,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>3628.437883338531</v>
+        <v>3931.779546462988</v>
       </c>
       <c r="AB19" t="n">
-        <v>4964.588787365923</v>
+        <v>5379.634233342515</v>
       </c>
       <c r="AC19" t="n">
-        <v>4490.775401343657</v>
+        <v>4866.20949247617</v>
       </c>
       <c r="AD19" t="n">
-        <v>3628437.883338531</v>
+        <v>3931779.546462988</v>
       </c>
       <c r="AE19" t="n">
-        <v>4964588.787365923</v>
+        <v>5379634.233342515</v>
       </c>
       <c r="AF19" t="n">
         <v>2.662783069316392e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>59</v>
+        <v>58.94583333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>4490775.401343657</v>
+        <v>4866209.49247617</v>
       </c>
     </row>
     <row r="20">
@@ -7710,28 +7710,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>3618.141054520603</v>
+        <v>3921.48271764506</v>
       </c>
       <c r="AB20" t="n">
-        <v>4950.500211913204</v>
+        <v>5365.545657889798</v>
       </c>
       <c r="AC20" t="n">
-        <v>4478.031419758708</v>
+        <v>4853.46551089122</v>
       </c>
       <c r="AD20" t="n">
-        <v>3618141.054520603</v>
+        <v>3921482.71764506</v>
       </c>
       <c r="AE20" t="n">
-        <v>4950500.211913204</v>
+        <v>5365545.657889798</v>
       </c>
       <c r="AF20" t="n">
         <v>2.665043176603972e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>59</v>
+        <v>58.89166666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>4478031.419758707</v>
+        <v>4853465.510891221</v>
       </c>
     </row>
     <row r="21">
@@ -7816,28 +7816,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>3623.795168093732</v>
+        <v>3927.136831218188</v>
       </c>
       <c r="AB21" t="n">
-        <v>4958.236419545844</v>
+        <v>5373.281865522438</v>
       </c>
       <c r="AC21" t="n">
-        <v>4485.029294592723</v>
+        <v>4860.463385725237</v>
       </c>
       <c r="AD21" t="n">
-        <v>3623795.168093732</v>
+        <v>3927136.831218188</v>
       </c>
       <c r="AE21" t="n">
-        <v>4958236.419545844</v>
+        <v>5373281.865522439</v>
       </c>
       <c r="AF21" t="n">
         <v>2.666549914795691e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>59</v>
+        <v>58.8625</v>
       </c>
       <c r="AH21" t="n">
-        <v>4485029.294592723</v>
+        <v>4860463.385725236</v>
       </c>
     </row>
     <row r="22">
@@ -7922,28 +7922,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>3635.689218517236</v>
+        <v>3939.030881641692</v>
       </c>
       <c r="AB22" t="n">
-        <v>4974.510384063756</v>
+        <v>5389.55583004035</v>
       </c>
       <c r="AC22" t="n">
-        <v>4499.750094777696</v>
+        <v>4875.18418591021</v>
       </c>
       <c r="AD22" t="n">
-        <v>3635689.218517235</v>
+        <v>3939030.881641692</v>
       </c>
       <c r="AE22" t="n">
-        <v>4974510.384063756</v>
+        <v>5389555.83004035</v>
       </c>
       <c r="AF22" t="n">
         <v>2.666549914795691e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>59</v>
+        <v>58.8625</v>
       </c>
       <c r="AH22" t="n">
-        <v>4499750.094777696</v>
+        <v>4875184.18591021</v>
       </c>
     </row>
     <row r="23">
@@ -8028,28 +8028,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>3649.381306162222</v>
+        <v>3952.722969286679</v>
       </c>
       <c r="AB23" t="n">
-        <v>4993.244502431901</v>
+        <v>5408.289948408496</v>
       </c>
       <c r="AC23" t="n">
-        <v>4516.696255182287</v>
+        <v>4892.130346314801</v>
       </c>
       <c r="AD23" t="n">
-        <v>3649381.306162222</v>
+        <v>3952722.969286678</v>
       </c>
       <c r="AE23" t="n">
-        <v>4993244.502431901</v>
+        <v>5408289.948408496</v>
       </c>
       <c r="AF23" t="n">
         <v>2.666173230247761e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>59</v>
+        <v>58.86666666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>4516696.255182287</v>
+        <v>4892130.346314801</v>
       </c>
     </row>
   </sheetData>
@@ -8325,28 +8325,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>13637.79575856648</v>
+        <v>14286.22273555968</v>
       </c>
       <c r="AB2" t="n">
-        <v>18659.83381395776</v>
+        <v>19547.04021045918</v>
       </c>
       <c r="AC2" t="n">
-        <v>16878.96546399418</v>
+        <v>17681.49812721546</v>
       </c>
       <c r="AD2" t="n">
-        <v>13637795.75856648</v>
+        <v>14286222.73555968</v>
       </c>
       <c r="AE2" t="n">
-        <v>18659833.81395777</v>
+        <v>19547040.21045918</v>
       </c>
       <c r="AF2" t="n">
         <v>1.310263769342387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>132</v>
+        <v>131.0875</v>
       </c>
       <c r="AH2" t="n">
-        <v>16878965.46399418</v>
+        <v>17681498.12721546</v>
       </c>
     </row>
     <row r="3">
@@ -8431,28 +8431,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6031.674354853603</v>
+        <v>6438.154922901802</v>
       </c>
       <c r="AB3" t="n">
-        <v>8252.802951003405</v>
+        <v>8808.96759686402</v>
       </c>
       <c r="AC3" t="n">
-        <v>7465.167020241017</v>
+        <v>7968.252092882658</v>
       </c>
       <c r="AD3" t="n">
-        <v>6031674.354853603</v>
+        <v>6438154.922901802</v>
       </c>
       <c r="AE3" t="n">
-        <v>8252802.951003404</v>
+        <v>8808967.59686402</v>
       </c>
       <c r="AF3" t="n">
         <v>2.123047711822157e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>81</v>
+        <v>80.89583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>7465167.020241017</v>
+        <v>7968252.092882658</v>
       </c>
     </row>
     <row r="4">
@@ -8537,28 +8537,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4878.225700094035</v>
+        <v>5226.623984271442</v>
       </c>
       <c r="AB4" t="n">
-        <v>6674.603614998018</v>
+        <v>7151.297517657095</v>
       </c>
       <c r="AC4" t="n">
-        <v>6037.588813847365</v>
+        <v>6468.787719480734</v>
       </c>
       <c r="AD4" t="n">
-        <v>4878225.700094035</v>
+        <v>5226623.984271443</v>
       </c>
       <c r="AE4" t="n">
-        <v>6674603.614998018</v>
+        <v>7151297.517657096</v>
       </c>
       <c r="AF4" t="n">
         <v>2.416507228579559e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>72</v>
+        <v>71.06666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>6037588.813847365</v>
+        <v>6468787.719480734</v>
       </c>
     </row>
     <row r="5">
@@ -8643,28 +8643,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4386.734436710444</v>
+        <v>4725.451160707887</v>
       </c>
       <c r="AB5" t="n">
-        <v>6002.123585372326</v>
+        <v>6465.570750272881</v>
       </c>
       <c r="AC5" t="n">
-        <v>5429.289334417524</v>
+        <v>5848.505752352135</v>
       </c>
       <c r="AD5" t="n">
-        <v>4386734.436710444</v>
+        <v>4725451.160707886</v>
       </c>
       <c r="AE5" t="n">
-        <v>6002123.585372326</v>
+        <v>6465570.750272881</v>
       </c>
       <c r="AF5" t="n">
         <v>2.569419420597811e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>67</v>
+        <v>66.83333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>5429289.334417524</v>
+        <v>5848505.752352135</v>
       </c>
     </row>
     <row r="6">
@@ -8749,28 +8749,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4111.757526592019</v>
+        <v>4431.079997900321</v>
       </c>
       <c r="AB6" t="n">
-        <v>5625.888045823171</v>
+        <v>6062.799138580403</v>
       </c>
       <c r="AC6" t="n">
-        <v>5088.96118671306</v>
+        <v>5484.174097986092</v>
       </c>
       <c r="AD6" t="n">
-        <v>4111757.526592019</v>
+        <v>4431079.997900321</v>
       </c>
       <c r="AE6" t="n">
-        <v>5625888.045823171</v>
+        <v>6062799.138580402</v>
       </c>
       <c r="AF6" t="n">
         <v>2.665041060889549e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>65</v>
+        <v>64.44166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>5088961.186713059</v>
+        <v>5484174.097986093</v>
       </c>
     </row>
     <row r="7">
@@ -8855,28 +8855,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3922.249056337675</v>
+        <v>4241.6046820349</v>
       </c>
       <c r="AB7" t="n">
-        <v>5366.59419629751</v>
+        <v>5803.550652352337</v>
       </c>
       <c r="AC7" t="n">
-        <v>4854.413978264934</v>
+        <v>5249.667923426108</v>
       </c>
       <c r="AD7" t="n">
-        <v>3922249.056337675</v>
+        <v>4241604.6820349</v>
       </c>
       <c r="AE7" t="n">
-        <v>5366594.196297511</v>
+        <v>5803550.652352337</v>
       </c>
       <c r="AF7" t="n">
         <v>2.728926208498253e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>63</v>
+        <v>62.92916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>4854413.978264934</v>
+        <v>5249667.923426108</v>
       </c>
     </row>
     <row r="8">
@@ -8961,28 +8961,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3783.575623895385</v>
+        <v>4093.284865861282</v>
       </c>
       <c r="AB8" t="n">
-        <v>5176.855088189895</v>
+        <v>5600.612936455101</v>
       </c>
       <c r="AC8" t="n">
-        <v>4682.783304334605</v>
+        <v>5066.09829830924</v>
       </c>
       <c r="AD8" t="n">
-        <v>3783575.623895384</v>
+        <v>4093284.865861283</v>
       </c>
       <c r="AE8" t="n">
-        <v>5176855.088189894</v>
+        <v>5600612.936455101</v>
       </c>
       <c r="AF8" t="n">
         <v>2.775500541916211e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>62</v>
+        <v>61.87916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>4682783.304334605</v>
+        <v>5066098.29830924</v>
       </c>
     </row>
     <row r="9">
@@ -9067,28 +9067,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3677.834446761131</v>
+        <v>3977.829985187997</v>
       </c>
       <c r="AB9" t="n">
-        <v>5032.175344663302</v>
+        <v>5442.64247520805</v>
       </c>
       <c r="AC9" t="n">
-        <v>4551.911592470901</v>
+        <v>4923.204316170679</v>
       </c>
       <c r="AD9" t="n">
-        <v>3677834.446761131</v>
+        <v>3977829.985187997</v>
       </c>
       <c r="AE9" t="n">
-        <v>5032175.344663302</v>
+        <v>5442642.475208051</v>
       </c>
       <c r="AF9" t="n">
         <v>2.810534332540339e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>62</v>
+        <v>61.09999999999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>4551911.592470901</v>
+        <v>4923204.316170678</v>
       </c>
     </row>
     <row r="10">
@@ -9173,28 +9173,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3576.517963067457</v>
+        <v>3876.479336075543</v>
       </c>
       <c r="AB10" t="n">
-        <v>4893.54966190581</v>
+        <v>5303.97004581731</v>
       </c>
       <c r="AC10" t="n">
-        <v>4426.516150313422</v>
+        <v>4797.766588813019</v>
       </c>
       <c r="AD10" t="n">
-        <v>3576517.963067458</v>
+        <v>3876479.336075543</v>
       </c>
       <c r="AE10" t="n">
-        <v>4893549.66190581</v>
+        <v>5303970.04581731</v>
       </c>
       <c r="AF10" t="n">
         <v>2.839385689524915e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>61</v>
+        <v>60.48333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>4426516.150313422</v>
+        <v>4797766.588813019</v>
       </c>
     </row>
     <row r="11">
@@ -9279,28 +9279,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3474.989182173521</v>
+        <v>3775.017874989312</v>
       </c>
       <c r="AB11" t="n">
-        <v>4754.633504753029</v>
+        <v>5165.145998595369</v>
       </c>
       <c r="AC11" t="n">
-        <v>4300.857956229255</v>
+        <v>4672.191713817172</v>
       </c>
       <c r="AD11" t="n">
-        <v>3474989.182173521</v>
+        <v>3775017.874989312</v>
       </c>
       <c r="AE11" t="n">
-        <v>4754633.504753029</v>
+        <v>5165145.998595369</v>
       </c>
       <c r="AF11" t="n">
         <v>2.86329109959785e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>60</v>
+        <v>59.97916666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>4300857.956229256</v>
+        <v>4672191.713817172</v>
       </c>
     </row>
     <row r="12">
@@ -9385,28 +9385,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3413.222840213109</v>
+        <v>3713.251533028899</v>
       </c>
       <c r="AB12" t="n">
-        <v>4670.122070744095</v>
+        <v>5080.634564586437</v>
       </c>
       <c r="AC12" t="n">
-        <v>4224.412174869596</v>
+        <v>4595.745932457512</v>
       </c>
       <c r="AD12" t="n">
-        <v>3413222.840213109</v>
+        <v>3713251.533028899</v>
       </c>
       <c r="AE12" t="n">
-        <v>4670122.070744095</v>
+        <v>5080634.564586436</v>
       </c>
       <c r="AF12" t="n">
         <v>2.879365427060685e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>60</v>
+        <v>59.64166666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>4224412.174869596</v>
+        <v>4595745.932457512</v>
       </c>
     </row>
     <row r="13">
@@ -9491,28 +9491,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3340.640125552213</v>
+        <v>3630.955114828971</v>
       </c>
       <c r="AB13" t="n">
-        <v>4570.811198421676</v>
+        <v>4968.032974543557</v>
       </c>
       <c r="AC13" t="n">
-        <v>4134.579392817947</v>
+        <v>4493.890880131005</v>
       </c>
       <c r="AD13" t="n">
-        <v>3340640.125552213</v>
+        <v>3630955.114828971</v>
       </c>
       <c r="AE13" t="n">
-        <v>4570811.198421676</v>
+        <v>4968032.974543558</v>
       </c>
       <c r="AF13" t="n">
         <v>2.894615430038247e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>60</v>
+        <v>59.325</v>
       </c>
       <c r="AH13" t="n">
-        <v>4134579.392817947</v>
+        <v>4493890.880131005</v>
       </c>
     </row>
     <row r="14">
@@ -9597,28 +9597,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3301.206405729439</v>
+        <v>3591.521395006197</v>
       </c>
       <c r="AB14" t="n">
-        <v>4516.856243267216</v>
+        <v>4914.078019389099</v>
       </c>
       <c r="AC14" t="n">
-        <v>4085.773822857175</v>
+        <v>4445.085310170234</v>
       </c>
       <c r="AD14" t="n">
-        <v>3301206.405729439</v>
+        <v>3591521.395006197</v>
       </c>
       <c r="AE14" t="n">
-        <v>4516856.243267216</v>
+        <v>4914078.019389099</v>
       </c>
       <c r="AF14" t="n">
         <v>2.904095161618893e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>60</v>
+        <v>59.13333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>4085773.822857175</v>
+        <v>4445085.310170234</v>
       </c>
     </row>
     <row r="15">
@@ -9703,28 +9703,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3306.280320045</v>
+        <v>3596.595309321758</v>
       </c>
       <c r="AB15" t="n">
-        <v>4523.798596679069</v>
+        <v>4921.02037280095</v>
       </c>
       <c r="AC15" t="n">
-        <v>4092.053607803055</v>
+        <v>4451.365095116113</v>
       </c>
       <c r="AD15" t="n">
-        <v>3306280.320045</v>
+        <v>3596595.309321758</v>
       </c>
       <c r="AE15" t="n">
-        <v>4523798.596679069</v>
+        <v>4921020.37280095</v>
       </c>
       <c r="AF15" t="n">
         <v>2.90574381058944e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>60</v>
+        <v>59.10416666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>4092053.607803055</v>
+        <v>4451365.095116113</v>
       </c>
     </row>
     <row r="16">
@@ -9809,28 +9809,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>3319.265326834421</v>
+        <v>3609.580316111179</v>
       </c>
       <c r="AB16" t="n">
-        <v>4541.565255826425</v>
+        <v>4938.787031948306</v>
       </c>
       <c r="AC16" t="n">
-        <v>4108.124641937049</v>
+        <v>4467.436129250107</v>
       </c>
       <c r="AD16" t="n">
-        <v>3319265.326834421</v>
+        <v>3609580.31611118</v>
       </c>
       <c r="AE16" t="n">
-        <v>4541565.255826425</v>
+        <v>4938787.031948307</v>
       </c>
       <c r="AF16" t="n">
         <v>2.905331648346803e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>60</v>
+        <v>59.10416666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>4108124.641937049</v>
+        <v>4467436.129250107</v>
       </c>
     </row>
     <row r="17">
@@ -9915,28 +9915,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>3331.721134134322</v>
+        <v>3622.036123411081</v>
       </c>
       <c r="AB17" t="n">
-        <v>4558.607840885587</v>
+        <v>4955.829617007469</v>
       </c>
       <c r="AC17" t="n">
-        <v>4123.540706597582</v>
+        <v>4482.852193910641</v>
       </c>
       <c r="AD17" t="n">
-        <v>3331721.134134322</v>
+        <v>3622036.123411081</v>
       </c>
       <c r="AE17" t="n">
-        <v>4558607.840885587</v>
+        <v>4955829.617007469</v>
       </c>
       <c r="AF17" t="n">
         <v>2.905331648346803e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>60</v>
+        <v>59.10833333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>4123540.706597582</v>
+        <v>4482852.193910642</v>
       </c>
     </row>
   </sheetData>
@@ -10212,28 +10212,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4662.757521067718</v>
+        <v>5064.974905038398</v>
       </c>
       <c r="AB2" t="n">
-        <v>6379.790546669021</v>
+        <v>6930.122115996366</v>
       </c>
       <c r="AC2" t="n">
-        <v>5770.912290986958</v>
+        <v>6268.72098773289</v>
       </c>
       <c r="AD2" t="n">
-        <v>4662757.521067718</v>
+        <v>5064974.905038398</v>
       </c>
       <c r="AE2" t="n">
-        <v>6379790.546669021</v>
+        <v>6930122.115996366</v>
       </c>
       <c r="AF2" t="n">
         <v>2.865515176097856e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>84</v>
+        <v>83.64999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>5770912.290986958</v>
+        <v>6268720.98773289</v>
       </c>
     </row>
     <row r="3">
@@ -10318,28 +10318,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3132.49641823415</v>
+        <v>3459.835782868236</v>
       </c>
       <c r="AB3" t="n">
-        <v>4286.019795416798</v>
+        <v>4733.899955302741</v>
       </c>
       <c r="AC3" t="n">
-        <v>3876.968081608621</v>
+        <v>4282.103187638784</v>
       </c>
       <c r="AD3" t="n">
-        <v>3132496.41823415</v>
+        <v>3459835.782868236</v>
       </c>
       <c r="AE3" t="n">
-        <v>4286019.795416798</v>
+        <v>4733899.95530274</v>
       </c>
       <c r="AF3" t="n">
         <v>3.582325436972767e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>67</v>
+        <v>66.91666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3876968.081608621</v>
+        <v>4282103.187638784</v>
       </c>
     </row>
     <row r="4">
@@ -10424,28 +10424,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2720.520325017153</v>
+        <v>3019.861575269622</v>
       </c>
       <c r="AB4" t="n">
-        <v>3722.335929574773</v>
+        <v>4131.907834174152</v>
       </c>
       <c r="AC4" t="n">
-        <v>3367.081412787305</v>
+        <v>3737.564349649481</v>
       </c>
       <c r="AD4" t="n">
-        <v>2720520.325017153</v>
+        <v>3019861.575269622</v>
       </c>
       <c r="AE4" t="n">
-        <v>3722335.929574773</v>
+        <v>4131907.834174152</v>
       </c>
       <c r="AF4" t="n">
         <v>3.83027505369595e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>63</v>
+        <v>62.57916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3367081.412787305</v>
+        <v>3737564.349649481</v>
       </c>
     </row>
     <row r="5">
@@ -10530,28 +10530,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2554.323296808977</v>
+        <v>2844.241745514015</v>
       </c>
       <c r="AB5" t="n">
-        <v>3494.937823484922</v>
+        <v>3891.617035302439</v>
       </c>
       <c r="AC5" t="n">
-        <v>3161.385862787432</v>
+        <v>3520.206567371842</v>
       </c>
       <c r="AD5" t="n">
-        <v>2554323.296808977</v>
+        <v>2844241.745514015</v>
       </c>
       <c r="AE5" t="n">
-        <v>3494937.823484922</v>
+        <v>3891617.03530244</v>
       </c>
       <c r="AF5" t="n">
         <v>3.925197760794152e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>62</v>
+        <v>61.0625</v>
       </c>
       <c r="AH5" t="n">
-        <v>3161385.862787432</v>
+        <v>3520206.567371842</v>
       </c>
     </row>
     <row r="6">
@@ -10636,28 +10636,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2549.073411929286</v>
+        <v>2848.346331344192</v>
       </c>
       <c r="AB6" t="n">
-        <v>3487.754699383953</v>
+        <v>3897.233110716836</v>
       </c>
       <c r="AC6" t="n">
-        <v>3154.888285969081</v>
+        <v>3525.286652430897</v>
       </c>
       <c r="AD6" t="n">
-        <v>2549073.411929286</v>
+        <v>2848346.331344192</v>
       </c>
       <c r="AE6" t="n">
-        <v>3487754.699383953</v>
+        <v>3897233.110716836</v>
       </c>
       <c r="AF6" t="n">
         <v>3.929800073865581e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>61</v>
+        <v>60.99583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3154888.285969081</v>
+        <v>3525286.652430898</v>
       </c>
     </row>
     <row r="7">
@@ -10742,28 +10742,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2561.68519663989</v>
+        <v>2860.958116054796</v>
       </c>
       <c r="AB7" t="n">
-        <v>3505.010699617676</v>
+        <v>3914.489110950558</v>
       </c>
       <c r="AC7" t="n">
-        <v>3170.497397759445</v>
+        <v>3540.895764221262</v>
       </c>
       <c r="AD7" t="n">
-        <v>2561685.19663989</v>
+        <v>2860958.116054797</v>
       </c>
       <c r="AE7" t="n">
-        <v>3505010.699617676</v>
+        <v>3914489.110950558</v>
       </c>
       <c r="AF7" t="n">
         <v>3.932101230401294e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>61</v>
+        <v>60.9625</v>
       </c>
       <c r="AH7" t="n">
-        <v>3170497.397759445</v>
+        <v>3540895.764221262</v>
       </c>
     </row>
   </sheetData>
@@ -11039,28 +11039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6825.918279356815</v>
+        <v>7299.944289524418</v>
       </c>
       <c r="AB2" t="n">
-        <v>9339.522528077741</v>
+        <v>9988.105827740726</v>
       </c>
       <c r="AC2" t="n">
-        <v>8448.171606099846</v>
+        <v>9034.855025935349</v>
       </c>
       <c r="AD2" t="n">
-        <v>6825918.279356815</v>
+        <v>7299944.289524418</v>
       </c>
       <c r="AE2" t="n">
-        <v>9339522.528077742</v>
+        <v>9988105.827740727</v>
       </c>
       <c r="AF2" t="n">
         <v>2.149234565023758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>97</v>
+        <v>96.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>8448171.606099846</v>
+        <v>9034855.025935348</v>
       </c>
     </row>
     <row r="3">
@@ -11145,28 +11145,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4064.857014426426</v>
+        <v>4415.542293116098</v>
       </c>
       <c r="AB3" t="n">
-        <v>5561.716695973637</v>
+        <v>6041.539765419472</v>
       </c>
       <c r="AC3" t="n">
-        <v>5030.914260428111</v>
+        <v>5464.943689561926</v>
       </c>
       <c r="AD3" t="n">
-        <v>4064857.014426426</v>
+        <v>4415542.293116098</v>
       </c>
       <c r="AE3" t="n">
-        <v>5561716.695973637</v>
+        <v>6041539.765419472</v>
       </c>
       <c r="AF3" t="n">
         <v>2.908989481959602e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>72</v>
+        <v>71.3625</v>
       </c>
       <c r="AH3" t="n">
-        <v>5030914.260428111</v>
+        <v>5464943.689561926</v>
       </c>
     </row>
     <row r="4">
@@ -11251,28 +11251,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3469.684604731222</v>
+        <v>3791.922173035458</v>
       </c>
       <c r="AB4" t="n">
-        <v>4747.375547875034</v>
+        <v>5188.275204947104</v>
       </c>
       <c r="AC4" t="n">
-        <v>4294.292688569089</v>
+        <v>4693.113501176741</v>
       </c>
       <c r="AD4" t="n">
-        <v>3469684.604731222</v>
+        <v>3791922.173035458</v>
       </c>
       <c r="AE4" t="n">
-        <v>4747375.547875034</v>
+        <v>5188275.204947104</v>
       </c>
       <c r="AF4" t="n">
         <v>3.174031852982467e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>66</v>
+        <v>65.39583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4294292.688569089</v>
+        <v>4693113.501176741</v>
       </c>
     </row>
     <row r="5">
@@ -11357,28 +11357,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3178.994217558491</v>
+        <v>3491.816535541952</v>
       </c>
       <c r="AB5" t="n">
-        <v>4349.640135790495</v>
+        <v>4777.657432002154</v>
       </c>
       <c r="AC5" t="n">
-        <v>3934.516585988758</v>
+        <v>4321.684512176008</v>
       </c>
       <c r="AD5" t="n">
-        <v>3178994.217558491</v>
+        <v>3491816.535541953</v>
       </c>
       <c r="AE5" t="n">
-        <v>4349640.135790495</v>
+        <v>4777657.432002153</v>
       </c>
       <c r="AF5" t="n">
         <v>3.309044038221558e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>63</v>
+        <v>62.72916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>3934516.585988758</v>
+        <v>4321684.512176008</v>
       </c>
     </row>
     <row r="6">
@@ -11463,28 +11463,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2996.523616988964</v>
+        <v>3290.381805745323</v>
       </c>
       <c r="AB6" t="n">
-        <v>4099.975810056499</v>
+        <v>4502.045548021301</v>
       </c>
       <c r="AC6" t="n">
-        <v>3708.679873096742</v>
+        <v>4072.37663957859</v>
       </c>
       <c r="AD6" t="n">
-        <v>2996523.616988963</v>
+        <v>3290381.805745323</v>
       </c>
       <c r="AE6" t="n">
-        <v>4099975.810056499</v>
+        <v>4502045.548021302</v>
       </c>
       <c r="AF6" t="n">
         <v>3.392243429125352e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>62</v>
+        <v>61.19166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3708679.873096742</v>
+        <v>4072376.63957859</v>
       </c>
     </row>
     <row r="7">
@@ -11569,28 +11569,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2853.007030808365</v>
+        <v>3146.831054145946</v>
       </c>
       <c r="AB7" t="n">
-        <v>3903.610085339267</v>
+        <v>4305.633076670822</v>
       </c>
       <c r="AC7" t="n">
-        <v>3531.055017545505</v>
+        <v>3894.709498827173</v>
       </c>
       <c r="AD7" t="n">
-        <v>2853007.030808365</v>
+        <v>3146831.054145946</v>
       </c>
       <c r="AE7" t="n">
-        <v>3903610.085339267</v>
+        <v>4305633.076670822</v>
       </c>
       <c r="AF7" t="n">
         <v>3.447045423133839e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>61</v>
+        <v>60.22083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3531055.017545504</v>
+        <v>3894709.498827173</v>
       </c>
     </row>
     <row r="8">
@@ -11675,28 +11675,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2810.010140162782</v>
+        <v>3103.901483308066</v>
       </c>
       <c r="AB8" t="n">
-        <v>3844.779842669036</v>
+        <v>4246.894943931434</v>
       </c>
       <c r="AC8" t="n">
-        <v>3477.839450666959</v>
+        <v>3841.577251036947</v>
       </c>
       <c r="AD8" t="n">
-        <v>2810010.140162782</v>
+        <v>3103901.483308067</v>
       </c>
       <c r="AE8" t="n">
-        <v>3844779.842669037</v>
+        <v>4246894.943931433</v>
       </c>
       <c r="AF8" t="n">
         <v>3.460995021608727e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>60</v>
+        <v>59.97916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>3477839.450666959</v>
+        <v>3841577.251036947</v>
       </c>
     </row>
     <row r="9">
@@ -11781,28 +11781,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2819.552064706986</v>
+        <v>3113.44340785227</v>
       </c>
       <c r="AB9" t="n">
-        <v>3857.835524790419</v>
+        <v>4259.950626052815</v>
       </c>
       <c r="AC9" t="n">
-        <v>3489.64911681044</v>
+        <v>3853.386917180428</v>
       </c>
       <c r="AD9" t="n">
-        <v>2819552.064706986</v>
+        <v>3113443.40785227</v>
       </c>
       <c r="AE9" t="n">
-        <v>3857835.524790419</v>
+        <v>4259950.626052815</v>
       </c>
       <c r="AF9" t="n">
         <v>3.462489621445321e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>60</v>
+        <v>59.95</v>
       </c>
       <c r="AH9" t="n">
-        <v>3489649.11681044</v>
+        <v>3853386.917180428</v>
       </c>
     </row>
   </sheetData>
@@ -12078,28 +12078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3425.514270619284</v>
+        <v>3786.244424237633</v>
       </c>
       <c r="AB2" t="n">
-        <v>4686.939748085464</v>
+        <v>5180.50665855732</v>
       </c>
       <c r="AC2" t="n">
-        <v>4239.624796689262</v>
+        <v>4686.086373951176</v>
       </c>
       <c r="AD2" t="n">
-        <v>3425514.270619284</v>
+        <v>3786244.424237633</v>
       </c>
       <c r="AE2" t="n">
-        <v>4686939.748085464</v>
+        <v>5180506.65855732</v>
       </c>
       <c r="AF2" t="n">
         <v>3.62930508963462e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>76</v>
+        <v>75.64999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>4239624.796689263</v>
+        <v>4686086.373951176</v>
       </c>
     </row>
     <row r="3">
@@ -12184,28 +12184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2465.5206334119</v>
+        <v>2770.743327883186</v>
       </c>
       <c r="AB3" t="n">
-        <v>3373.434101728022</v>
+        <v>3791.053257778593</v>
       </c>
       <c r="AC3" t="n">
-        <v>3051.478285703471</v>
+        <v>3429.240455632726</v>
       </c>
       <c r="AD3" t="n">
-        <v>2465520.6334119</v>
+        <v>2770743.327883186</v>
       </c>
       <c r="AE3" t="n">
-        <v>3373434.101728022</v>
+        <v>3791053.257778593</v>
       </c>
       <c r="AF3" t="n">
         <v>4.303375370443664e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>64</v>
+        <v>63.79583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3051478.285703471</v>
+        <v>3429240.455632726</v>
       </c>
     </row>
     <row r="4">
@@ -12290,28 +12290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2350.39274827629</v>
+        <v>2646.296879748693</v>
       </c>
       <c r="AB4" t="n">
-        <v>3215.911050201642</v>
+        <v>3620.780137251157</v>
       </c>
       <c r="AC4" t="n">
-        <v>2908.989013129783</v>
+        <v>3275.217962748609</v>
       </c>
       <c r="AD4" t="n">
-        <v>2350392.74827629</v>
+        <v>2646296.879748693</v>
       </c>
       <c r="AE4" t="n">
-        <v>3215911.050201642</v>
+        <v>3620780.137251157</v>
       </c>
       <c r="AF4" t="n">
         <v>4.398259163636727e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>63</v>
+        <v>62.42499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>2908989.013129782</v>
+        <v>3275217.962748609</v>
       </c>
     </row>
     <row r="5">
@@ -12396,28 +12396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2367.133810420736</v>
+        <v>2663.037941893139</v>
       </c>
       <c r="AB5" t="n">
-        <v>3238.816909991212</v>
+        <v>3643.685997040727</v>
       </c>
       <c r="AC5" t="n">
-        <v>2929.708769809612</v>
+        <v>3295.937719428438</v>
       </c>
       <c r="AD5" t="n">
-        <v>2367133.810420736</v>
+        <v>2663037.941893139</v>
       </c>
       <c r="AE5" t="n">
-        <v>3238816.909991212</v>
+        <v>3643685.997040727</v>
       </c>
       <c r="AF5" t="n">
         <v>4.397600248406219e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>63</v>
+        <v>62.42916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2929708.769809612</v>
+        <v>3295937.719428438</v>
       </c>
     </row>
   </sheetData>
@@ -12693,28 +12693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>15343.37145907319</v>
+        <v>16042.24349829482</v>
       </c>
       <c r="AB2" t="n">
-        <v>20993.47773208059</v>
+        <v>21949.70528820202</v>
       </c>
       <c r="AC2" t="n">
-        <v>18989.88968186108</v>
+        <v>19854.85622210004</v>
       </c>
       <c r="AD2" t="n">
-        <v>15343371.45907319</v>
+        <v>16042243.49829482</v>
       </c>
       <c r="AE2" t="n">
-        <v>20993477.73208059</v>
+        <v>21949705.28820202</v>
       </c>
       <c r="AF2" t="n">
         <v>1.208627381882304e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>139</v>
+        <v>138.6708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>18989889.68186108</v>
+        <v>19854856.22210004</v>
       </c>
     </row>
     <row r="3">
@@ -12799,28 +12799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6407.298255135243</v>
+        <v>6824.679692928452</v>
       </c>
       <c r="AB3" t="n">
-        <v>8766.748142725706</v>
+        <v>9337.82783948388</v>
       </c>
       <c r="AC3" t="n">
-        <v>7930.062004191929</v>
+        <v>8446.638656206869</v>
       </c>
       <c r="AD3" t="n">
-        <v>6407298.255135244</v>
+        <v>6824679.692928452</v>
       </c>
       <c r="AE3" t="n">
-        <v>8766748.142725706</v>
+        <v>9337827.83948388</v>
       </c>
       <c r="AF3" t="n">
         <v>2.026713270317781e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>83</v>
+        <v>82.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>7930062.004191929</v>
+        <v>8446638.656206869</v>
       </c>
     </row>
     <row r="4">
@@ -12905,28 +12905,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5119.591318162171</v>
+        <v>5478.686029373496</v>
       </c>
       <c r="AB4" t="n">
-        <v>7004.850701938411</v>
+        <v>7496.179927958351</v>
       </c>
       <c r="AC4" t="n">
-        <v>6336.317582314852</v>
+        <v>6780.75503658833</v>
       </c>
       <c r="AD4" t="n">
-        <v>5119591.318162171</v>
+        <v>5478686.029373496</v>
       </c>
       <c r="AE4" t="n">
-        <v>7004850.701938411</v>
+        <v>7496179.927958351</v>
       </c>
       <c r="AF4" t="n">
         <v>2.325551920813139e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>73</v>
+        <v>72.06666666666668</v>
       </c>
       <c r="AH4" t="n">
-        <v>6336317.582314853</v>
+        <v>6780755.03658833</v>
       </c>
     </row>
     <row r="5">
@@ -13011,28 +13011,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4590.428076638708</v>
+        <v>4930.172250260084</v>
       </c>
       <c r="AB5" t="n">
-        <v>6280.826209851361</v>
+        <v>6745.679176655262</v>
       </c>
       <c r="AC5" t="n">
-        <v>5681.39297157786</v>
+        <v>6101.881023655217</v>
       </c>
       <c r="AD5" t="n">
-        <v>4590428.076638708</v>
+        <v>4930172.250260084</v>
       </c>
       <c r="AE5" t="n">
-        <v>6280826.209851362</v>
+        <v>6745679.176655263</v>
       </c>
       <c r="AF5" t="n">
         <v>2.480401019656629e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>68</v>
+        <v>67.5625</v>
       </c>
       <c r="AH5" t="n">
-        <v>5681392.97157786</v>
+        <v>6101881.023655217</v>
       </c>
     </row>
     <row r="6">
@@ -13117,28 +13117,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4298.014038139631</v>
+        <v>4618.307199974429</v>
       </c>
       <c r="AB6" t="n">
-        <v>5880.732421979987</v>
+        <v>6318.971656339414</v>
       </c>
       <c r="AC6" t="n">
-        <v>5319.483573285787</v>
+        <v>5715.897870190563</v>
       </c>
       <c r="AD6" t="n">
-        <v>4298014.038139631</v>
+        <v>4618307.199974429</v>
       </c>
       <c r="AE6" t="n">
-        <v>5880732.421979987</v>
+        <v>6318971.656339414</v>
       </c>
       <c r="AF6" t="n">
         <v>2.577332533478138e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>66</v>
+        <v>65.02499999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>5319483.573285787</v>
+        <v>5715897.870190563</v>
       </c>
     </row>
     <row r="7">
@@ -13223,28 +13223,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4091.586574531743</v>
+        <v>4411.811405528981</v>
       </c>
       <c r="AB7" t="n">
-        <v>5598.289259334699</v>
+        <v>6036.435000427631</v>
       </c>
       <c r="AC7" t="n">
-        <v>5063.996389671907</v>
+        <v>5460.326116176323</v>
       </c>
       <c r="AD7" t="n">
-        <v>4091586.574531743</v>
+        <v>4411811.40552898</v>
       </c>
       <c r="AE7" t="n">
-        <v>5598289.259334698</v>
+        <v>6036435.000427631</v>
       </c>
       <c r="AF7" t="n">
         <v>2.644098638434033e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>64</v>
+        <v>63.37916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>5063996.389671908</v>
+        <v>5460326.116176323</v>
       </c>
     </row>
     <row r="8">
@@ -13329,28 +13329,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3949.612909084057</v>
+        <v>4260.162976801248</v>
       </c>
       <c r="AB8" t="n">
-        <v>5404.034626833097</v>
+        <v>5828.942929985835</v>
       </c>
       <c r="AC8" t="n">
-        <v>4888.281146658176</v>
+        <v>5272.636797720552</v>
       </c>
       <c r="AD8" t="n">
-        <v>3949612.909084057</v>
+        <v>4260162.976801248</v>
       </c>
       <c r="AE8" t="n">
-        <v>5404034.626833097</v>
+        <v>5828942.929985835</v>
       </c>
       <c r="AF8" t="n">
         <v>2.69075447081285e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>63</v>
+        <v>62.2875</v>
       </c>
       <c r="AH8" t="n">
-        <v>4888281.146658177</v>
+        <v>5272636.797720551</v>
       </c>
     </row>
     <row r="9">
@@ -13435,28 +13435,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3832.754154485618</v>
+        <v>4143.270056784028</v>
       </c>
       <c r="AB9" t="n">
-        <v>5244.143323347103</v>
+        <v>5669.004879866595</v>
       </c>
       <c r="AC9" t="n">
-        <v>4743.649644768038</v>
+        <v>5127.963010630234</v>
       </c>
       <c r="AD9" t="n">
-        <v>3832754.154485618</v>
+        <v>4143270.056784029</v>
       </c>
       <c r="AE9" t="n">
-        <v>5244143.323347104</v>
+        <v>5669004.879866594</v>
       </c>
       <c r="AF9" t="n">
         <v>2.726952961451588e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>62</v>
+        <v>61.45416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>4743649.644768039</v>
+        <v>5127963.010630234</v>
       </c>
     </row>
     <row r="10">
@@ -13541,28 +13541,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3728.857039197334</v>
+        <v>4039.440261303448</v>
       </c>
       <c r="AB10" t="n">
-        <v>5101.986706592433</v>
+        <v>5526.940373042766</v>
       </c>
       <c r="AC10" t="n">
-        <v>4615.060255998374</v>
+        <v>4999.456940948889</v>
       </c>
       <c r="AD10" t="n">
-        <v>3728857.039197334</v>
+        <v>4039440.261303448</v>
       </c>
       <c r="AE10" t="n">
-        <v>5101986.706592433</v>
+        <v>5526940.373042766</v>
       </c>
       <c r="AF10" t="n">
         <v>2.756716164865662e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>61</v>
+        <v>60.79166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>4615060.255998374</v>
+        <v>4999456.940948889</v>
       </c>
     </row>
     <row r="11">
@@ -13647,28 +13647,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3650.269398991763</v>
+        <v>3951.110538010126</v>
       </c>
       <c r="AB11" t="n">
-        <v>4994.459630221169</v>
+        <v>5406.08374880047</v>
       </c>
       <c r="AC11" t="n">
-        <v>4517.79541288079</v>
+        <v>4890.134703300944</v>
       </c>
       <c r="AD11" t="n">
-        <v>3650269.398991763</v>
+        <v>3951110.538010126</v>
       </c>
       <c r="AE11" t="n">
-        <v>4994459.630221169</v>
+        <v>5406083.74880047</v>
       </c>
       <c r="AF11" t="n">
         <v>2.778837464700446e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>61</v>
+        <v>60.3125</v>
       </c>
       <c r="AH11" t="n">
-        <v>4517795.412880789</v>
+        <v>4890134.703300945</v>
       </c>
     </row>
     <row r="12">
@@ -13753,28 +13753,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3573.240490164959</v>
+        <v>3874.148948991028</v>
       </c>
       <c r="AB12" t="n">
-        <v>4889.065278888713</v>
+        <v>5300.781507398854</v>
       </c>
       <c r="AC12" t="n">
-        <v>4422.459750517606</v>
+        <v>4794.882360026079</v>
       </c>
       <c r="AD12" t="n">
-        <v>3573240.490164959</v>
+        <v>3874148.948991028</v>
       </c>
       <c r="AE12" t="n">
-        <v>4889065.278888713</v>
+        <v>5300781.507398854</v>
       </c>
       <c r="AF12" t="n">
         <v>2.796534504568273e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>60</v>
+        <v>59.92499999999999</v>
       </c>
       <c r="AH12" t="n">
-        <v>4422459.750517606</v>
+        <v>4794882.360026079</v>
       </c>
     </row>
     <row r="13">
@@ -13859,28 +13859,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3494.614708849348</v>
+        <v>3795.523167675416</v>
       </c>
       <c r="AB13" t="n">
-        <v>4781.486016168025</v>
+        <v>5193.202244678167</v>
       </c>
       <c r="AC13" t="n">
-        <v>4325.147701642541</v>
+        <v>4697.570311151015</v>
       </c>
       <c r="AD13" t="n">
-        <v>3494614.708849348</v>
+        <v>3795523.167675416</v>
       </c>
       <c r="AE13" t="n">
-        <v>4781486.016168025</v>
+        <v>5193202.244678167</v>
       </c>
       <c r="AF13" t="n">
         <v>2.814231544436101e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>60</v>
+        <v>59.54999999999999</v>
       </c>
       <c r="AH13" t="n">
-        <v>4325147.70164254</v>
+        <v>4697570.311151015</v>
       </c>
     </row>
     <row r="14">
@@ -13965,28 +13965,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3433.772587165927</v>
+        <v>3724.938962904245</v>
       </c>
       <c r="AB14" t="n">
-        <v>4698.239141115795</v>
+        <v>5096.625821754902</v>
       </c>
       <c r="AC14" t="n">
-        <v>4249.845791507575</v>
+        <v>4610.211006485689</v>
       </c>
       <c r="AD14" t="n">
-        <v>3433772.587165927</v>
+        <v>3724938.962904245</v>
       </c>
       <c r="AE14" t="n">
-        <v>4698239.141115795</v>
+        <v>5096625.821754902</v>
       </c>
       <c r="AF14" t="n">
         <v>2.82710211888543e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>60</v>
+        <v>59.28333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>4249845.791507575</v>
+        <v>4610211.006485689</v>
       </c>
     </row>
     <row r="15">
@@ -14071,28 +14071,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3392.034712331149</v>
+        <v>3683.201088069467</v>
       </c>
       <c r="AB15" t="n">
-        <v>4641.131539421765</v>
+        <v>5039.518220060871</v>
       </c>
       <c r="AC15" t="n">
-        <v>4198.188459168203</v>
+        <v>4558.553674146317</v>
       </c>
       <c r="AD15" t="n">
-        <v>3392034.712331148</v>
+        <v>3683201.088069467</v>
       </c>
       <c r="AE15" t="n">
-        <v>4641131.539421765</v>
+        <v>5039518.220060872</v>
       </c>
       <c r="AF15" t="n">
         <v>2.836352844270885e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>60</v>
+        <v>59.08333333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>4198188.459168203</v>
+        <v>4558553.674146317</v>
       </c>
     </row>
     <row r="16">
@@ -14177,28 +14177,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>3381.307668425085</v>
+        <v>3672.474044163404</v>
       </c>
       <c r="AB16" t="n">
-        <v>4626.454324705713</v>
+        <v>5024.84100534482</v>
       </c>
       <c r="AC16" t="n">
-        <v>4184.91201722505</v>
+        <v>4545.277232203164</v>
       </c>
       <c r="AD16" t="n">
-        <v>3381307.668425085</v>
+        <v>3672474.044163404</v>
       </c>
       <c r="AE16" t="n">
-        <v>4626454.324705712</v>
+        <v>5024841.005344819</v>
       </c>
       <c r="AF16" t="n">
         <v>2.837961666077051e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>60</v>
+        <v>59.05</v>
       </c>
       <c r="AH16" t="n">
-        <v>4184912.01722505</v>
+        <v>4545277.232203164</v>
       </c>
     </row>
     <row r="17">
@@ -14283,28 +14283,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>3392.753524316891</v>
+        <v>3683.919900055209</v>
       </c>
       <c r="AB17" t="n">
-        <v>4642.115049692406</v>
+        <v>5040.501730331513</v>
       </c>
       <c r="AC17" t="n">
-        <v>4199.078104598979</v>
+        <v>4559.443319577093</v>
       </c>
       <c r="AD17" t="n">
-        <v>3392753.524316891</v>
+        <v>3683919.900055209</v>
       </c>
       <c r="AE17" t="n">
-        <v>4642115.049692405</v>
+        <v>5040501.730331512</v>
       </c>
       <c r="AF17" t="n">
         <v>2.837961666077051e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>60</v>
+        <v>59.05416666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>4199078.104598979</v>
+        <v>4559443.319577093</v>
       </c>
     </row>
   </sheetData>
@@ -14580,28 +14580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2826.386724289227</v>
+        <v>3166.33057288742</v>
       </c>
       <c r="AB2" t="n">
-        <v>3867.187007554739</v>
+        <v>4332.313178470961</v>
       </c>
       <c r="AC2" t="n">
-        <v>3498.108107184623</v>
+        <v>3918.843289157263</v>
       </c>
       <c r="AD2" t="n">
-        <v>2826386.724289226</v>
+        <v>3166330.57288742</v>
       </c>
       <c r="AE2" t="n">
-        <v>3867187.007554739</v>
+        <v>4332313.178470961</v>
       </c>
       <c r="AF2" t="n">
         <v>4.197513933310779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>71.57083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3498108.107184623</v>
+        <v>3918843.289157263</v>
       </c>
     </row>
     <row r="3">
@@ -14686,28 +14686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2234.389461395542</v>
+        <v>2537.575236541221</v>
       </c>
       <c r="AB3" t="n">
-        <v>3057.190235387566</v>
+        <v>3472.022388554304</v>
       </c>
       <c r="AC3" t="n">
-        <v>2765.416290115505</v>
+        <v>3140.657444804579</v>
       </c>
       <c r="AD3" t="n">
-        <v>2234389.461395542</v>
+        <v>2537575.236541221</v>
       </c>
       <c r="AE3" t="n">
-        <v>3057190.235387566</v>
+        <v>3472022.388554304</v>
       </c>
       <c r="AF3" t="n">
         <v>4.715894647507008e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>64</v>
+        <v>63.69583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2765416.290115505</v>
+        <v>3140657.444804579</v>
       </c>
     </row>
     <row r="4">
@@ -14792,28 +14792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2251.056391245455</v>
+        <v>2554.242166391134</v>
       </c>
       <c r="AB4" t="n">
-        <v>3079.99466410127</v>
+        <v>3494.826817268007</v>
       </c>
       <c r="AC4" t="n">
-        <v>2786.044296158989</v>
+        <v>3161.285450848061</v>
       </c>
       <c r="AD4" t="n">
-        <v>2251056.391245455</v>
+        <v>2554242.166391134</v>
       </c>
       <c r="AE4" t="n">
-        <v>3079994.66410127</v>
+        <v>3494826.817268007</v>
       </c>
       <c r="AF4" t="n">
         <v>4.718778545777918e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>64</v>
+        <v>63.66666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2786044.296158989</v>
+        <v>3161285.450848062</v>
       </c>
     </row>
   </sheetData>
@@ -15089,28 +15089,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9660.310711526601</v>
+        <v>10216.30378929987</v>
       </c>
       <c r="AB2" t="n">
-        <v>13217.66329834157</v>
+        <v>13978.39755603445</v>
       </c>
       <c r="AC2" t="n">
-        <v>11956.1880642543</v>
+        <v>12644.31891209018</v>
       </c>
       <c r="AD2" t="n">
-        <v>9660310.711526601</v>
+        <v>10216303.78929987</v>
       </c>
       <c r="AE2" t="n">
-        <v>13217663.29834157</v>
+        <v>13978397.55603445</v>
       </c>
       <c r="AF2" t="n">
         <v>1.668087934965562e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>112</v>
+        <v>111.95</v>
       </c>
       <c r="AH2" t="n">
-        <v>11956188.0642543</v>
+        <v>12644318.91209018</v>
       </c>
     </row>
     <row r="3">
@@ -15195,28 +15195,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5010.520350578412</v>
+        <v>5393.921440247011</v>
       </c>
       <c r="AB3" t="n">
-        <v>6855.614992218819</v>
+        <v>7380.201277565739</v>
       </c>
       <c r="AC3" t="n">
-        <v>6201.324719277268</v>
+        <v>6675.845225812135</v>
       </c>
       <c r="AD3" t="n">
-        <v>5010520.350578412</v>
+        <v>5393921.44024701</v>
       </c>
       <c r="AE3" t="n">
-        <v>6855614.992218819</v>
+        <v>7380201.277565738</v>
       </c>
       <c r="AF3" t="n">
         <v>2.457763093861134e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>76</v>
+        <v>75.98333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>6201324.719277268</v>
+        <v>6675845.225812135</v>
       </c>
     </row>
     <row r="4">
@@ -15301,28 +15301,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4169.49068450378</v>
+        <v>4504.950566284272</v>
       </c>
       <c r="AB4" t="n">
-        <v>5704.881099485217</v>
+        <v>6163.872109182802</v>
       </c>
       <c r="AC4" t="n">
-        <v>5160.415254201042</v>
+        <v>5575.600806131001</v>
       </c>
       <c r="AD4" t="n">
-        <v>4169490.68450378</v>
+        <v>4504950.566284272</v>
       </c>
       <c r="AE4" t="n">
-        <v>5704881.099485217</v>
+        <v>6163872.109182802</v>
       </c>
       <c r="AF4" t="n">
         <v>2.739661887814207e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>69</v>
+        <v>68.16250000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>5160415.254201042</v>
+        <v>5575600.806131002</v>
       </c>
     </row>
     <row r="5">
@@ -15407,28 +15407,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3792.283132441863</v>
+        <v>4118.187724827684</v>
       </c>
       <c r="AB5" t="n">
-        <v>5188.769085531353</v>
+        <v>5634.686126729533</v>
       </c>
       <c r="AC5" t="n">
-        <v>4693.560246491194</v>
+        <v>5096.919591125902</v>
       </c>
       <c r="AD5" t="n">
-        <v>3792283.132441862</v>
+        <v>4118187.724827684</v>
       </c>
       <c r="AE5" t="n">
-        <v>5188769.085531353</v>
+        <v>5634686.126729533</v>
       </c>
       <c r="AF5" t="n">
         <v>2.883972558168563e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>65</v>
+        <v>64.75416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>4693560.246491194</v>
+        <v>5096919.591125902</v>
       </c>
     </row>
     <row r="6">
@@ -15513,28 +15513,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3568.401998169597</v>
+        <v>3884.718146771826</v>
       </c>
       <c r="AB6" t="n">
-        <v>4882.445040681456</v>
+        <v>5315.242750082641</v>
       </c>
       <c r="AC6" t="n">
-        <v>4416.471338553287</v>
+        <v>4807.963442004606</v>
       </c>
       <c r="AD6" t="n">
-        <v>3568401.998169597</v>
+        <v>3884718.146771826</v>
       </c>
       <c r="AE6" t="n">
-        <v>4882445.040681456</v>
+        <v>5315242.750082641</v>
       </c>
       <c r="AF6" t="n">
         <v>2.972262005559271e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>63</v>
+        <v>62.825</v>
       </c>
       <c r="AH6" t="n">
-        <v>4416471.338553287</v>
+        <v>4807963.442004606</v>
       </c>
     </row>
     <row r="7">
@@ -15619,28 +15619,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3408.517778858132</v>
+        <v>3715.279649095548</v>
       </c>
       <c r="AB7" t="n">
-        <v>4663.684398225558</v>
+        <v>5083.409522462992</v>
       </c>
       <c r="AC7" t="n">
-        <v>4218.588904780897</v>
+        <v>4598.256052249006</v>
       </c>
       <c r="AD7" t="n">
-        <v>3408517.778858132</v>
+        <v>3715279.649095548</v>
       </c>
       <c r="AE7" t="n">
-        <v>4663684.398225558</v>
+        <v>5083409.522462992</v>
       </c>
       <c r="AF7" t="n">
         <v>3.034109435711138e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>62</v>
+        <v>61.55</v>
       </c>
       <c r="AH7" t="n">
-        <v>4218588.904780897</v>
+        <v>4598256.052249006</v>
       </c>
     </row>
     <row r="8">
@@ -15725,28 +15725,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3278.204420568616</v>
+        <v>3575.41201244122</v>
       </c>
       <c r="AB8" t="n">
-        <v>4485.38391239421</v>
+        <v>4892.036451467894</v>
       </c>
       <c r="AC8" t="n">
-        <v>4057.305167070997</v>
+        <v>4425.147358555897</v>
       </c>
       <c r="AD8" t="n">
-        <v>3278204.420568616</v>
+        <v>3575412.01244122</v>
       </c>
       <c r="AE8" t="n">
-        <v>4485383.91239421</v>
+        <v>4892036.451467894</v>
       </c>
       <c r="AF8" t="n">
         <v>3.078030074514637e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>61</v>
+        <v>60.66666666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>4057305.167070997</v>
+        <v>4425147.358555897</v>
       </c>
     </row>
     <row r="9">
@@ -15831,28 +15831,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3172.235481961238</v>
+        <v>3459.821475661324</v>
       </c>
       <c r="AB9" t="n">
-        <v>4340.392535571963</v>
+        <v>4733.880379551055</v>
       </c>
       <c r="AC9" t="n">
-        <v>3926.151563755994</v>
+        <v>4282.085480169365</v>
       </c>
       <c r="AD9" t="n">
-        <v>3172235.481961238</v>
+        <v>3459821.475661324</v>
       </c>
       <c r="AE9" t="n">
-        <v>4340392.535571963</v>
+        <v>4733880.379551055</v>
       </c>
       <c r="AF9" t="n">
         <v>3.110746468725407e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>61</v>
+        <v>60.02916666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>3926151.563755994</v>
+        <v>4282085.480169365</v>
       </c>
     </row>
     <row r="10">
@@ -15937,28 +15937,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3085.733222305332</v>
+        <v>3382.906648759155</v>
       </c>
       <c r="AB10" t="n">
-        <v>4222.036327700384</v>
+        <v>4628.642120140821</v>
       </c>
       <c r="AC10" t="n">
-        <v>3819.091106249703</v>
+        <v>4186.891012534423</v>
       </c>
       <c r="AD10" t="n">
-        <v>3085733.222305332</v>
+        <v>3382906.648759156</v>
       </c>
       <c r="AE10" t="n">
-        <v>4222036.327700384</v>
+        <v>4628642.120140821</v>
       </c>
       <c r="AF10" t="n">
         <v>3.133154957910866e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>60</v>
+        <v>59.59583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3819091.106249703</v>
+        <v>4186891.012534422</v>
       </c>
     </row>
     <row r="11">
@@ -16043,28 +16043,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3057.847033080108</v>
+        <v>3354.918974307445</v>
       </c>
       <c r="AB11" t="n">
-        <v>4183.881213350587</v>
+        <v>4590.348149226935</v>
       </c>
       <c r="AC11" t="n">
-        <v>3784.577462462413</v>
+        <v>4152.251764458633</v>
       </c>
       <c r="AD11" t="n">
-        <v>3057847.033080108</v>
+        <v>3354918.974307445</v>
       </c>
       <c r="AE11" t="n">
-        <v>4183881.213350588</v>
+        <v>4590348.149226935</v>
       </c>
       <c r="AF11" t="n">
         <v>3.141222014017631e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>60</v>
+        <v>59.45000000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>3784577.462462413</v>
+        <v>4152251.764458633</v>
       </c>
     </row>
     <row r="12">
@@ -16149,28 +16149,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3068.922670599485</v>
+        <v>3365.994611826823</v>
       </c>
       <c r="AB12" t="n">
-        <v>4199.035389227242</v>
+        <v>4605.50232510359</v>
       </c>
       <c r="AC12" t="n">
-        <v>3798.285345062419</v>
+        <v>4165.959647058639</v>
       </c>
       <c r="AD12" t="n">
-        <v>3068922.670599485</v>
+        <v>3365994.611826823</v>
       </c>
       <c r="AE12" t="n">
-        <v>4199035.389227242</v>
+        <v>4605502.32510359</v>
       </c>
       <c r="AF12" t="n">
         <v>3.143014693152468e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>60</v>
+        <v>59.4125</v>
       </c>
       <c r="AH12" t="n">
-        <v>3798285.345062419</v>
+        <v>4165959.64705864</v>
       </c>
     </row>
     <row r="13">
@@ -16255,28 +16255,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3081.748093556093</v>
+        <v>3378.820034783431</v>
       </c>
       <c r="AB13" t="n">
-        <v>4216.583698734203</v>
+        <v>4623.050634610549</v>
       </c>
       <c r="AC13" t="n">
-        <v>3814.158868539241</v>
+        <v>4181.833170535461</v>
       </c>
       <c r="AD13" t="n">
-        <v>3081748.093556093</v>
+        <v>3378820.034783431</v>
       </c>
       <c r="AE13" t="n">
-        <v>4216583.698734202</v>
+        <v>4623050.63461055</v>
       </c>
       <c r="AF13" t="n">
         <v>3.143014693152468e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>60</v>
+        <v>59.4125</v>
       </c>
       <c r="AH13" t="n">
-        <v>3814158.868539241</v>
+        <v>4181833.170535461</v>
       </c>
     </row>
   </sheetData>
@@ -16552,28 +16552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>12150.40005045534</v>
+        <v>12767.86585671203</v>
       </c>
       <c r="AB2" t="n">
-        <v>16624.71338685252</v>
+        <v>17469.55734364179</v>
       </c>
       <c r="AC2" t="n">
-        <v>15038.07407414247</v>
+        <v>15802.28730944169</v>
       </c>
       <c r="AD2" t="n">
-        <v>12150400.05045534</v>
+        <v>12767865.85671203</v>
       </c>
       <c r="AE2" t="n">
-        <v>16624713.38685252</v>
+        <v>17469557.3436418</v>
       </c>
       <c r="AF2" t="n">
         <v>1.419275217296147e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>125</v>
+        <v>124.1833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>15038074.07414247</v>
+        <v>15802287.30944169</v>
       </c>
     </row>
     <row r="3">
@@ -16658,28 +16658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5682.32230797238</v>
+        <v>6068.264440083094</v>
       </c>
       <c r="AB3" t="n">
-        <v>7774.804068135927</v>
+        <v>8302.867119855031</v>
       </c>
       <c r="AC3" t="n">
-        <v>7032.787679878785</v>
+        <v>7510.453135082943</v>
       </c>
       <c r="AD3" t="n">
-        <v>5682322.30797238</v>
+        <v>6068264.440083094</v>
       </c>
       <c r="AE3" t="n">
-        <v>7774804.068135927</v>
+        <v>8302867.11985503</v>
       </c>
       <c r="AF3" t="n">
         <v>2.22642189825026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>80</v>
+        <v>79.16666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>7032787.679878784</v>
+        <v>7510453.135082943</v>
       </c>
     </row>
     <row r="4">
@@ -16764,28 +16764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4642.927363959275</v>
+        <v>4990.230968917488</v>
       </c>
       <c r="AB4" t="n">
-        <v>6352.658050868459</v>
+        <v>6827.854165125994</v>
       </c>
       <c r="AC4" t="n">
-        <v>5746.369282504907</v>
+        <v>6176.21334655962</v>
       </c>
       <c r="AD4" t="n">
-        <v>4642927.363959275</v>
+        <v>4990230.968917488</v>
       </c>
       <c r="AE4" t="n">
-        <v>6352658.050868459</v>
+        <v>6827854.165125994</v>
       </c>
       <c r="AF4" t="n">
         <v>2.514084237374367e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>71</v>
+        <v>70.10416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>5746369.282504907</v>
+        <v>6176213.34655962</v>
       </c>
     </row>
     <row r="5">
@@ -16870,28 +16870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4195.505397549136</v>
+        <v>4523.506821640489</v>
       </c>
       <c r="AB5" t="n">
-        <v>5740.475577562013</v>
+        <v>6189.261596405387</v>
       </c>
       <c r="AC5" t="n">
-        <v>5192.612645247353</v>
+        <v>5598.567156327432</v>
       </c>
       <c r="AD5" t="n">
-        <v>4195505.397549136</v>
+        <v>4523506.821640489</v>
       </c>
       <c r="AE5" t="n">
-        <v>5740475.577562014</v>
+        <v>6189261.596405387</v>
       </c>
       <c r="AF5" t="n">
         <v>2.665106965414524e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>67</v>
+        <v>66.13333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>5192612.645247352</v>
+        <v>5598567.156327432</v>
       </c>
     </row>
     <row r="6">
@@ -16976,28 +16976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3929.385141448878</v>
+        <v>4247.802794914504</v>
       </c>
       <c r="AB6" t="n">
-        <v>5376.358102768514</v>
+        <v>5812.031183835652</v>
       </c>
       <c r="AC6" t="n">
-        <v>4863.246031206074</v>
+        <v>5257.339084887157</v>
       </c>
       <c r="AD6" t="n">
-        <v>3929385.141448878</v>
+        <v>4247802.794914505</v>
       </c>
       <c r="AE6" t="n">
-        <v>5376358.102768514</v>
+        <v>5812031.183835652</v>
       </c>
       <c r="AF6" t="n">
         <v>2.758597225629859e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>64</v>
+        <v>63.90000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>4863246.031206074</v>
+        <v>5257339.084887157</v>
       </c>
     </row>
     <row r="7">
@@ -17082,28 +17082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3759.515059271719</v>
+        <v>4068.214302496212</v>
       </c>
       <c r="AB7" t="n">
-        <v>5143.9343621946</v>
+        <v>5566.310285623814</v>
       </c>
       <c r="AC7" t="n">
-        <v>4653.004486223772</v>
+        <v>5035.069444329219</v>
       </c>
       <c r="AD7" t="n">
-        <v>3759515.059271719</v>
+        <v>4068214.302496212</v>
       </c>
       <c r="AE7" t="n">
-        <v>5143934.3621946</v>
+        <v>5566310.285623814</v>
       </c>
       <c r="AF7" t="n">
         <v>2.820783054822864e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>63</v>
+        <v>62.4875</v>
       </c>
       <c r="AH7" t="n">
-        <v>4653004.486223772</v>
+        <v>5035069.444329219</v>
       </c>
     </row>
     <row r="8">
@@ -17188,28 +17188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3620.070195095355</v>
+        <v>3928.735272901067</v>
       </c>
       <c r="AB8" t="n">
-        <v>4953.139747155255</v>
+        <v>5375.468923951225</v>
       </c>
       <c r="AC8" t="n">
-        <v>4480.419041461868</v>
+        <v>4862.441714367135</v>
       </c>
       <c r="AD8" t="n">
-        <v>3620070.195095355</v>
+        <v>3928735.272901067</v>
       </c>
       <c r="AE8" t="n">
-        <v>4953139.747155255</v>
+        <v>5375468.923951225</v>
       </c>
       <c r="AF8" t="n">
         <v>2.867739701356358e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>62</v>
+        <v>61.4625</v>
       </c>
       <c r="AH8" t="n">
-        <v>4480419.041461868</v>
+        <v>4862441.714367135</v>
       </c>
     </row>
     <row r="9">
@@ -17294,28 +17294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3508.919120688263</v>
+        <v>3817.65151830168</v>
       </c>
       <c r="AB9" t="n">
-        <v>4801.057943512143</v>
+        <v>5223.479230238952</v>
       </c>
       <c r="AC9" t="n">
-        <v>4342.851711710307</v>
+        <v>4724.957703703893</v>
       </c>
       <c r="AD9" t="n">
-        <v>3508919.120688263</v>
+        <v>3817651.51830168</v>
       </c>
       <c r="AE9" t="n">
-        <v>4801057.943512143</v>
+        <v>5223479.230238953</v>
       </c>
       <c r="AF9" t="n">
         <v>2.90200536234026e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>61</v>
+        <v>60.7375</v>
       </c>
       <c r="AH9" t="n">
-        <v>4342851.711710307</v>
+        <v>4724957.703703893</v>
       </c>
     </row>
     <row r="10">
@@ -17400,28 +17400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3414.767999293651</v>
+        <v>3713.816152084714</v>
       </c>
       <c r="AB10" t="n">
-        <v>4672.236225565702</v>
+        <v>5081.407101287838</v>
       </c>
       <c r="AC10" t="n">
-        <v>4226.324557722262</v>
+        <v>4596.444739340393</v>
       </c>
       <c r="AD10" t="n">
-        <v>3414767.999293651</v>
+        <v>3713816.152084714</v>
       </c>
       <c r="AE10" t="n">
-        <v>4672236.225565702</v>
+        <v>5081407.101287837</v>
       </c>
       <c r="AF10" t="n">
         <v>2.930348563401017e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>61</v>
+        <v>60.14583333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>4226324.557722262</v>
+        <v>4596444.739340393</v>
       </c>
     </row>
     <row r="11">
@@ -17506,28 +17506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3320.288432308014</v>
+        <v>3619.403904906781</v>
       </c>
       <c r="AB11" t="n">
-        <v>4542.965113871623</v>
+        <v>4952.2280995246</v>
       </c>
       <c r="AC11" t="n">
-        <v>4109.390899495127</v>
+        <v>4479.594400201577</v>
       </c>
       <c r="AD11" t="n">
-        <v>3320288.432308014</v>
+        <v>3619403.904906781</v>
       </c>
       <c r="AE11" t="n">
-        <v>4542965.113871623</v>
+        <v>4952228.0995246</v>
       </c>
       <c r="AF11" t="n">
         <v>2.952346271686978e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>60</v>
+        <v>59.70833333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>4109390.899495127</v>
+        <v>4479594.400201577</v>
       </c>
     </row>
     <row r="12">
@@ -17612,28 +17612,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3252.077044433016</v>
+        <v>3541.508272209429</v>
       </c>
       <c r="AB12" t="n">
-        <v>4449.635283706995</v>
+        <v>4845.6478583553</v>
       </c>
       <c r="AC12" t="n">
-        <v>4024.968337332175</v>
+        <v>4383.186027663171</v>
       </c>
       <c r="AD12" t="n">
-        <v>3252077.044433016</v>
+        <v>3541508.272209429</v>
       </c>
       <c r="AE12" t="n">
-        <v>4449635.283706996</v>
+        <v>4845647.8583553</v>
       </c>
       <c r="AF12" t="n">
         <v>2.968844552901449e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>60</v>
+        <v>59.37083333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>4024968.337332176</v>
+        <v>4383186.02766317</v>
       </c>
     </row>
     <row r="13">
@@ -17718,28 +17718,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3226.588859645006</v>
+        <v>3516.02008742142</v>
       </c>
       <c r="AB13" t="n">
-        <v>4414.761224820687</v>
+        <v>4810.773799468991</v>
       </c>
       <c r="AC13" t="n">
-        <v>3993.422609679928</v>
+        <v>4351.640300010922</v>
       </c>
       <c r="AD13" t="n">
-        <v>3226588.859645006</v>
+        <v>3516020.08742142</v>
       </c>
       <c r="AE13" t="n">
-        <v>4414761.224820687</v>
+        <v>4810773.79946899</v>
       </c>
       <c r="AF13" t="n">
         <v>2.975190045676245e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>60</v>
+        <v>59.24166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>3993422.609679928</v>
+        <v>4351640.300010922</v>
       </c>
     </row>
     <row r="14">
@@ -17824,28 +17824,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3225.758138909244</v>
+        <v>3515.189366685657</v>
       </c>
       <c r="AB14" t="n">
-        <v>4413.624596061203</v>
+        <v>4809.637170709508</v>
       </c>
       <c r="AC14" t="n">
-        <v>3992.394459173982</v>
+        <v>4350.612149504977</v>
       </c>
       <c r="AD14" t="n">
-        <v>3225758.138909244</v>
+        <v>3515189.366685657</v>
       </c>
       <c r="AE14" t="n">
-        <v>4413624.596061204</v>
+        <v>4809637.170709508</v>
       </c>
       <c r="AF14" t="n">
         <v>2.977305209934511e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>60</v>
+        <v>59.20000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>3992394.459173982</v>
+        <v>4350612.149504976</v>
       </c>
     </row>
     <row r="15">
@@ -17930,28 +17930,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3238.117369618858</v>
+        <v>3527.548597395271</v>
       </c>
       <c r="AB15" t="n">
-        <v>4430.535040768877</v>
+        <v>4826.54761541718</v>
       </c>
       <c r="AC15" t="n">
-        <v>4007.690994772712</v>
+        <v>4365.908685103706</v>
       </c>
       <c r="AD15" t="n">
-        <v>3238117.369618858</v>
+        <v>3527548.597395272</v>
       </c>
       <c r="AE15" t="n">
-        <v>4430535.040768877</v>
+        <v>4826547.615417181</v>
       </c>
       <c r="AF15" t="n">
         <v>2.977305209934511e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>60</v>
+        <v>59.20000000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>4007690.994772712</v>
+        <v>4365908.685103706</v>
       </c>
     </row>
   </sheetData>
@@ -18227,28 +18227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>19599.38500582517</v>
+        <v>20380.20782248405</v>
       </c>
       <c r="AB2" t="n">
-        <v>26816.74322881326</v>
+        <v>27885.09945403749</v>
       </c>
       <c r="AC2" t="n">
-        <v>24257.3908925897</v>
+        <v>25223.78469912586</v>
       </c>
       <c r="AD2" t="n">
-        <v>19599385.00582517</v>
+        <v>20380207.82248405</v>
       </c>
       <c r="AE2" t="n">
-        <v>26816743.22881326</v>
+        <v>27885099.45403749</v>
       </c>
       <c r="AF2" t="n">
         <v>1.026004381771665e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>157</v>
+        <v>156.1666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>24257390.8925897</v>
+        <v>25223784.69912586</v>
       </c>
     </row>
     <row r="3">
@@ -18333,28 +18333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7188.928549698369</v>
+        <v>7618.357638031037</v>
       </c>
       <c r="AB3" t="n">
-        <v>9836.20919484194</v>
+        <v>10423.77301857303</v>
       </c>
       <c r="AC3" t="n">
-        <v>8897.455194492166</v>
+        <v>9428.942751537341</v>
       </c>
       <c r="AD3" t="n">
-        <v>7188928.54969837</v>
+        <v>7618357.638031037</v>
       </c>
       <c r="AE3" t="n">
-        <v>9836209.19484194</v>
+        <v>10423773.01857303</v>
       </c>
       <c r="AF3" t="n">
         <v>1.855498928803704e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>87</v>
+        <v>86.36250000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>8897455.194492165</v>
+        <v>9428942.751537342</v>
       </c>
     </row>
     <row r="4">
@@ -18439,28 +18439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5621.356493006651</v>
+        <v>5992.208571478691</v>
       </c>
       <c r="AB4" t="n">
-        <v>7691.387950477879</v>
+        <v>8198.804125082364</v>
       </c>
       <c r="AC4" t="n">
-        <v>6957.332679414767</v>
+        <v>7416.321766478055</v>
       </c>
       <c r="AD4" t="n">
-        <v>5621356.493006651</v>
+        <v>5992208.571478691</v>
       </c>
       <c r="AE4" t="n">
-        <v>7691387.950477879</v>
+        <v>8198804.125082365</v>
       </c>
       <c r="AF4" t="n">
         <v>2.160454504045432e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>75</v>
+        <v>74.17083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>6957332.679414767</v>
+        <v>7416321.766478055</v>
       </c>
     </row>
     <row r="5">
@@ -18545,28 +18545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5000.526647316842</v>
+        <v>5342.12438627735</v>
       </c>
       <c r="AB5" t="n">
-        <v>6841.941166525267</v>
+        <v>7309.330263199699</v>
       </c>
       <c r="AC5" t="n">
-        <v>6188.955904316576</v>
+        <v>6611.738041589099</v>
       </c>
       <c r="AD5" t="n">
-        <v>5000526.647316842</v>
+        <v>5342124.38627735</v>
       </c>
       <c r="AE5" t="n">
-        <v>6841941.166525267</v>
+        <v>7309330.263199699</v>
       </c>
       <c r="AF5" t="n">
         <v>2.321200317981173e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>70</v>
+        <v>69.02499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>6188955.904316576</v>
+        <v>6611738.041589099</v>
       </c>
     </row>
     <row r="6">
@@ -18651,28 +18651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4657.637038304358</v>
+        <v>4989.437776869312</v>
       </c>
       <c r="AB6" t="n">
-        <v>6372.784476252435</v>
+        <v>6826.768884772519</v>
       </c>
       <c r="AC6" t="n">
-        <v>5764.574870097848</v>
+        <v>6175.231643839878</v>
       </c>
       <c r="AD6" t="n">
-        <v>4657637.038304358</v>
+        <v>4989437.776869312</v>
       </c>
       <c r="AE6" t="n">
-        <v>6372784.476252435</v>
+        <v>6826768.884772519</v>
       </c>
       <c r="AF6" t="n">
         <v>2.420801193123174e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>67</v>
+        <v>66.19166666666668</v>
       </c>
       <c r="AH6" t="n">
-        <v>5764574.870097849</v>
+        <v>6175231.643839877</v>
       </c>
     </row>
     <row r="7">
@@ -18757,28 +18757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4430.713407155565</v>
+        <v>4752.75131074375</v>
       </c>
       <c r="AB7" t="n">
-        <v>6062.297552950586</v>
+        <v>6502.924019949568</v>
       </c>
       <c r="AC7" t="n">
-        <v>5483.720382984807</v>
+        <v>5882.29407839652</v>
       </c>
       <c r="AD7" t="n">
-        <v>4430713.407155565</v>
+        <v>4752751.31074375</v>
       </c>
       <c r="AE7" t="n">
-        <v>6062297.552950585</v>
+        <v>6502924.019949568</v>
       </c>
       <c r="AF7" t="n">
         <v>2.489252759823083e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>65</v>
+        <v>64.37083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>5483720.382984807</v>
+        <v>5882294.078396521</v>
       </c>
     </row>
     <row r="8">
@@ -18863,28 +18863,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4274.239774171547</v>
+        <v>4586.54900820174</v>
       </c>
       <c r="AB8" t="n">
-        <v>5848.203425172352</v>
+        <v>6275.51869728348</v>
       </c>
       <c r="AC8" t="n">
-        <v>5290.059098278739</v>
+        <v>5676.592000560318</v>
       </c>
       <c r="AD8" t="n">
-        <v>4274239.774171547</v>
+        <v>4586549.008201741</v>
       </c>
       <c r="AE8" t="n">
-        <v>5848203.425172351</v>
+        <v>6275518.69728348</v>
       </c>
       <c r="AF8" t="n">
         <v>2.538476358348861e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>64</v>
+        <v>63.12083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>5290059.098278739</v>
+        <v>5676592.000560318</v>
       </c>
     </row>
     <row r="9">
@@ -18969,28 +18969,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4145.758774438772</v>
+        <v>4458.033843050183</v>
       </c>
       <c r="AB9" t="n">
-        <v>5672.410053156288</v>
+        <v>6099.678578634171</v>
       </c>
       <c r="AC9" t="n">
-        <v>5131.04319896035</v>
+        <v>5517.533816041748</v>
       </c>
       <c r="AD9" t="n">
-        <v>4145758.774438772</v>
+        <v>4458033.843050184</v>
       </c>
       <c r="AE9" t="n">
-        <v>5672410.053156288</v>
+        <v>6099678.578634171</v>
       </c>
       <c r="AF9" t="n">
         <v>2.576932294697124e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>63</v>
+        <v>62.18333333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>5131043.19896035</v>
+        <v>5517533.816041748</v>
       </c>
     </row>
     <row r="10">
@@ -19075,28 +19075,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4039.966713874772</v>
+        <v>4352.207617067404</v>
       </c>
       <c r="AB10" t="n">
-        <v>5527.6606886763</v>
+        <v>5954.882467520934</v>
       </c>
       <c r="AC10" t="n">
-        <v>5000.108510669327</v>
+        <v>5386.556842550546</v>
       </c>
       <c r="AD10" t="n">
-        <v>4039966.713874772</v>
+        <v>4352207.617067403</v>
       </c>
       <c r="AE10" t="n">
-        <v>5527660.6886763</v>
+        <v>5954882.467520935</v>
       </c>
       <c r="AF10" t="n">
         <v>2.606158806321803e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>62</v>
+        <v>61.48333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>5000108.510669327</v>
+        <v>5386556.842550546</v>
       </c>
     </row>
     <row r="11">
@@ -19181,28 +19181,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3951.505280318079</v>
+        <v>4263.813503318415</v>
       </c>
       <c r="AB11" t="n">
-        <v>5406.623852641012</v>
+        <v>5833.937741416488</v>
       </c>
       <c r="AC11" t="n">
-        <v>4890.623260388984</v>
+        <v>5277.154911358523</v>
       </c>
       <c r="AD11" t="n">
-        <v>3951505.280318079</v>
+        <v>4263813.503318415</v>
       </c>
       <c r="AE11" t="n">
-        <v>5406623.852641012</v>
+        <v>5833937.741416488</v>
       </c>
       <c r="AF11" t="n">
         <v>2.630001486857727e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>61</v>
+        <v>60.925</v>
       </c>
       <c r="AH11" t="n">
-        <v>4890623.260388984</v>
+        <v>5277154.911358523</v>
       </c>
     </row>
     <row r="12">
@@ -19287,28 +19287,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3872.911715634889</v>
+        <v>4175.423949269531</v>
       </c>
       <c r="AB12" t="n">
-        <v>5299.088670138101</v>
+        <v>5712.999254094882</v>
       </c>
       <c r="AC12" t="n">
-        <v>4793.351084777581</v>
+        <v>5167.758623528665</v>
       </c>
       <c r="AD12" t="n">
-        <v>3872911.715634889</v>
+        <v>4175423.949269531</v>
       </c>
       <c r="AE12" t="n">
-        <v>5299088.670138101</v>
+        <v>5712999.254094883</v>
       </c>
       <c r="AF12" t="n">
         <v>2.65230592993972e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>61</v>
+        <v>60.41666666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>4793351.084777581</v>
+        <v>5167758.623528665</v>
       </c>
     </row>
     <row r="13">
@@ -19393,28 +19393,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3815.705740488764</v>
+        <v>4118.217974123406</v>
       </c>
       <c r="AB13" t="n">
-        <v>5220.816931193663</v>
+        <v>5634.727515150445</v>
       </c>
       <c r="AC13" t="n">
-        <v>4722.549490742927</v>
+        <v>5096.957029494009</v>
       </c>
       <c r="AD13" t="n">
-        <v>3815705.740488764</v>
+        <v>4118217.974123406</v>
       </c>
       <c r="AE13" t="n">
-        <v>5220816.931193663</v>
+        <v>5634727.515150445</v>
       </c>
       <c r="AF13" t="n">
         <v>2.666150067025095e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>61</v>
+        <v>60.10416666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>4722549.490742926</v>
+        <v>5096957.02949401</v>
       </c>
     </row>
     <row r="14">
@@ -19499,28 +19499,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3737.310678706149</v>
+        <v>4039.890232148495</v>
       </c>
       <c r="AB14" t="n">
-        <v>5113.553349116648</v>
+        <v>5527.556043004271</v>
       </c>
       <c r="AC14" t="n">
-        <v>4625.522994393962</v>
+        <v>5000.013852233366</v>
       </c>
       <c r="AD14" t="n">
-        <v>3737310.678706149</v>
+        <v>4039890.232148495</v>
       </c>
       <c r="AE14" t="n">
-        <v>5113553.349116648</v>
+        <v>5527556.043004271</v>
       </c>
       <c r="AF14" t="n">
         <v>2.681917000927883e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>60</v>
+        <v>59.74166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>4625522.994393962</v>
+        <v>5000013.852233366</v>
       </c>
     </row>
     <row r="15">
@@ -19605,28 +19605,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3683.838841676884</v>
+        <v>3986.41839511923</v>
       </c>
       <c r="AB15" t="n">
-        <v>5040.390822682246</v>
+        <v>5454.393516569869</v>
       </c>
       <c r="AC15" t="n">
-        <v>4559.342996798212</v>
+        <v>4933.833854637614</v>
       </c>
       <c r="AD15" t="n">
-        <v>3683838.841676884</v>
+        <v>3986418.39511923</v>
       </c>
       <c r="AE15" t="n">
-        <v>5040390.822682246</v>
+        <v>5454393.516569869</v>
       </c>
       <c r="AF15" t="n">
         <v>2.692300103741913e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>60</v>
+        <v>59.51250000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>4559342.996798212</v>
+        <v>4933833.854637614</v>
       </c>
     </row>
     <row r="16">
@@ -19711,28 +19711,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>3617.940483688624</v>
+        <v>3910.724047765274</v>
       </c>
       <c r="AB16" t="n">
-        <v>4950.22578205233</v>
+        <v>5350.825171121258</v>
       </c>
       <c r="AC16" t="n">
-        <v>4477.783181098589</v>
+        <v>4840.149926719538</v>
       </c>
       <c r="AD16" t="n">
-        <v>3617940.483688624</v>
+        <v>3910724.047765275</v>
       </c>
       <c r="AE16" t="n">
-        <v>4950225.78205233</v>
+        <v>5350825.171121258</v>
       </c>
       <c r="AF16" t="n">
         <v>2.705759681463806e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>60</v>
+        <v>59.22083333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>4477783.181098589</v>
+        <v>4840149.926719538</v>
       </c>
     </row>
     <row r="17">
@@ -19817,28 +19817,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>3575.71002469358</v>
+        <v>3868.493588770231</v>
       </c>
       <c r="AB17" t="n">
-        <v>4892.444204978947</v>
+        <v>5293.043594047875</v>
       </c>
       <c r="AC17" t="n">
-        <v>4425.516196644138</v>
+        <v>4787.882942265089</v>
       </c>
       <c r="AD17" t="n">
-        <v>3575710.02469358</v>
+        <v>3868493.588770231</v>
       </c>
       <c r="AE17" t="n">
-        <v>4892444.204978947</v>
+        <v>5293043.594047874</v>
       </c>
       <c r="AF17" t="n">
         <v>2.713066309369976e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>60</v>
+        <v>59.05833333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>4425516.196644139</v>
+        <v>4787882.942265089</v>
       </c>
     </row>
     <row r="18">
@@ -19923,28 +19923,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>3534.060588842754</v>
+        <v>3836.605976866319</v>
       </c>
       <c r="AB18" t="n">
-        <v>4835.457609404413</v>
+        <v>5249.413556658788</v>
       </c>
       <c r="AC18" t="n">
-        <v>4373.968321770051</v>
+        <v>4748.416894409274</v>
       </c>
       <c r="AD18" t="n">
-        <v>3534060.588842754</v>
+        <v>3836605.976866318</v>
       </c>
       <c r="AE18" t="n">
-        <v>4835457.609404413</v>
+        <v>5249413.556658789</v>
       </c>
       <c r="AF18" t="n">
         <v>2.716911903004802e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>59</v>
+        <v>58.97499999999999</v>
       </c>
       <c r="AH18" t="n">
-        <v>4373968.321770051</v>
+        <v>4748416.894409275</v>
       </c>
     </row>
     <row r="19">
@@ -20029,28 +20029,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>3537.865513569823</v>
+        <v>3840.410901593387</v>
       </c>
       <c r="AB19" t="n">
-        <v>4840.66367527742</v>
+        <v>5254.619622531796</v>
       </c>
       <c r="AC19" t="n">
-        <v>4378.677528022899</v>
+        <v>4753.126100662122</v>
       </c>
       <c r="AD19" t="n">
-        <v>3537865.513569823</v>
+        <v>3840410.901593387</v>
       </c>
       <c r="AE19" t="n">
-        <v>4840663.67527742</v>
+        <v>5254619.622531796</v>
       </c>
       <c r="AF19" t="n">
         <v>2.718450140458733e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>59</v>
+        <v>58.94583333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>4378677.528022898</v>
+        <v>4753126.100662122</v>
       </c>
     </row>
     <row r="20">
@@ -20135,28 +20135,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>3543.797827282211</v>
+        <v>3846.343215305776</v>
       </c>
       <c r="AB20" t="n">
-        <v>4848.780528613921</v>
+        <v>5262.736475868296</v>
       </c>
       <c r="AC20" t="n">
-        <v>4386.019720269039</v>
+        <v>4760.468292908262</v>
       </c>
       <c r="AD20" t="n">
-        <v>3543797.827282211</v>
+        <v>3846343.215305776</v>
       </c>
       <c r="AE20" t="n">
-        <v>4848780.528613921</v>
+        <v>5262736.475868296</v>
       </c>
       <c r="AF20" t="n">
         <v>2.719988377912663e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>59</v>
+        <v>58.91249999999999</v>
       </c>
       <c r="AH20" t="n">
-        <v>4386019.720269038</v>
+        <v>4760468.292908262</v>
       </c>
     </row>
     <row r="21">
@@ -20241,28 +20241,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>3556.651863233028</v>
+        <v>3859.197251256592</v>
       </c>
       <c r="AB21" t="n">
-        <v>4866.367987681873</v>
+        <v>5280.323934936248</v>
       </c>
       <c r="AC21" t="n">
-        <v>4401.928656927698</v>
+        <v>4776.377229566921</v>
       </c>
       <c r="AD21" t="n">
-        <v>3556651.863233028</v>
+        <v>3859197.251256592</v>
       </c>
       <c r="AE21" t="n">
-        <v>4866367.987681873</v>
+        <v>5280323.934936249</v>
       </c>
       <c r="AF21" t="n">
         <v>2.719988377912663e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>59</v>
+        <v>58.90833333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>4401928.656927698</v>
+        <v>4776377.229566921</v>
       </c>
     </row>
   </sheetData>
@@ -20538,28 +20538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7671.447041865616</v>
+        <v>8166.303809240284</v>
       </c>
       <c r="AB2" t="n">
-        <v>10496.4122830387</v>
+        <v>11173.49714370055</v>
       </c>
       <c r="AC2" t="n">
-        <v>9494.649426552252</v>
+        <v>10107.11425840707</v>
       </c>
       <c r="AD2" t="n">
-        <v>7671447.041865615</v>
+        <v>8166303.809240284</v>
       </c>
       <c r="AE2" t="n">
-        <v>10496412.2830387</v>
+        <v>11173497.14370055</v>
       </c>
       <c r="AF2" t="n">
         <v>1.971813792783651e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>102</v>
+        <v>101.3041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>9494649.426552253</v>
+        <v>10107114.25840707</v>
       </c>
     </row>
     <row r="3">
@@ -20644,28 +20644,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4367.658204048646</v>
+        <v>4729.305903382135</v>
       </c>
       <c r="AB3" t="n">
-        <v>5976.022642260462</v>
+        <v>6470.844979259033</v>
       </c>
       <c r="AC3" t="n">
-        <v>5405.679428683354</v>
+        <v>5853.276616326274</v>
       </c>
       <c r="AD3" t="n">
-        <v>4367658.204048646</v>
+        <v>4729305.903382135</v>
       </c>
       <c r="AE3" t="n">
-        <v>5976022.642260462</v>
+        <v>6470844.979259033</v>
       </c>
       <c r="AF3" t="n">
         <v>2.742705253711469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>73</v>
+        <v>72.82916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>5405679.428683354</v>
+        <v>5853276.616326274</v>
       </c>
     </row>
     <row r="4">
@@ -20750,28 +20750,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3703.466942394644</v>
+        <v>4027.002519382384</v>
       </c>
       <c r="AB4" t="n">
-        <v>5067.246856014976</v>
+        <v>5509.92250583192</v>
       </c>
       <c r="AC4" t="n">
-        <v>4583.635928002344</v>
+        <v>4984.063235099919</v>
       </c>
       <c r="AD4" t="n">
-        <v>3703466.942394644</v>
+        <v>4027002.519382385</v>
       </c>
       <c r="AE4" t="n">
-        <v>5067246.856014976</v>
+        <v>5509922.50583192</v>
       </c>
       <c r="AF4" t="n">
         <v>3.01213373694619e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>67</v>
+        <v>66.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>4583635.928002344</v>
+        <v>4984063.235099919</v>
       </c>
     </row>
     <row r="5">
@@ -20856,28 +20856,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3392.241932689627</v>
+        <v>3706.223602269382</v>
       </c>
       <c r="AB5" t="n">
-        <v>4641.415067458154</v>
+        <v>5071.018639670841</v>
       </c>
       <c r="AC5" t="n">
-        <v>4198.444927686734</v>
+        <v>4587.047737919826</v>
       </c>
       <c r="AD5" t="n">
-        <v>3392241.932689628</v>
+        <v>3706223.602269382</v>
       </c>
       <c r="AE5" t="n">
-        <v>4641415.067458155</v>
+        <v>5071018.639670841</v>
       </c>
       <c r="AF5" t="n">
         <v>3.151162669576207e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>64</v>
+        <v>63.3875</v>
       </c>
       <c r="AH5" t="n">
-        <v>4198444.927686733</v>
+        <v>4587047.737919826</v>
       </c>
     </row>
     <row r="6">
@@ -20962,28 +20962,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3188.313445338521</v>
+        <v>3492.876858155554</v>
       </c>
       <c r="AB6" t="n">
-        <v>4362.391114374446</v>
+        <v>4779.108212180215</v>
       </c>
       <c r="AC6" t="n">
-        <v>3946.050629072768</v>
+        <v>4322.996831930058</v>
       </c>
       <c r="AD6" t="n">
-        <v>3188313.445338522</v>
+        <v>3492876.858155554</v>
       </c>
       <c r="AE6" t="n">
-        <v>4362391.114374447</v>
+        <v>4779108.212180215</v>
       </c>
       <c r="AF6" t="n">
         <v>3.236018259491769e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>62</v>
+        <v>61.72916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>3946050.629072768</v>
+        <v>4322996.831930058</v>
       </c>
     </row>
     <row r="7">
@@ -21068,28 +21068,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3039.730202085413</v>
+        <v>3334.80803833202</v>
       </c>
       <c r="AB7" t="n">
-        <v>4159.092965925471</v>
+        <v>4562.831479393479</v>
       </c>
       <c r="AC7" t="n">
-        <v>3762.154970581026</v>
+        <v>4127.361246974195</v>
       </c>
       <c r="AD7" t="n">
-        <v>3039730.202085413</v>
+        <v>3334808.03833202</v>
       </c>
       <c r="AE7" t="n">
-        <v>4159092.965925471</v>
+        <v>4562831.479393478</v>
       </c>
       <c r="AF7" t="n">
         <v>3.293547472993845e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>61</v>
+        <v>60.65</v>
       </c>
       <c r="AH7" t="n">
-        <v>3762154.970581026</v>
+        <v>4127361.246974194</v>
       </c>
     </row>
     <row r="8">
@@ -21174,28 +21174,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2916.957814175447</v>
+        <v>3212.001485003275</v>
       </c>
       <c r="AB8" t="n">
-        <v>3991.110368451557</v>
+        <v>4394.802135286318</v>
       </c>
       <c r="AC8" t="n">
-        <v>3610.204396444974</v>
+        <v>3975.368387637963</v>
       </c>
       <c r="AD8" t="n">
-        <v>2916957.814175447</v>
+        <v>3212001.485003275</v>
       </c>
       <c r="AE8" t="n">
-        <v>3991110.368451558</v>
+        <v>4394802.135286318</v>
       </c>
       <c r="AF8" t="n">
         <v>3.333338512332781e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>60</v>
+        <v>59.92499999999999</v>
       </c>
       <c r="AH8" t="n">
-        <v>3610204.396444974</v>
+        <v>3975368.387637963</v>
       </c>
     </row>
     <row r="9">
@@ -21280,28 +21280,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2896.574702403754</v>
+        <v>3191.61837323158</v>
       </c>
       <c r="AB9" t="n">
-        <v>3963.221295686099</v>
+        <v>4366.91306252086</v>
       </c>
       <c r="AC9" t="n">
-        <v>3584.977017641692</v>
+        <v>3950.14100883468</v>
       </c>
       <c r="AD9" t="n">
-        <v>2896574.702403754</v>
+        <v>3191618.37323158</v>
       </c>
       <c r="AE9" t="n">
-        <v>3963221.295686099</v>
+        <v>4366913.06252086</v>
       </c>
       <c r="AF9" t="n">
         <v>3.342926714583127e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>60</v>
+        <v>59.75416666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>3584977.017641692</v>
+        <v>3950141.00883468</v>
       </c>
     </row>
     <row r="10">
@@ -21386,28 +21386,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2905.422586560636</v>
+        <v>3200.466257388463</v>
       </c>
       <c r="AB10" t="n">
-        <v>3975.327361130644</v>
+        <v>4379.019127965405</v>
       </c>
       <c r="AC10" t="n">
-        <v>3595.927697191179</v>
+        <v>3961.091688384168</v>
       </c>
       <c r="AD10" t="n">
-        <v>2905422.586560636</v>
+        <v>3200466.257388462</v>
       </c>
       <c r="AE10" t="n">
-        <v>3975327.361130644</v>
+        <v>4379019.127965405</v>
       </c>
       <c r="AF10" t="n">
         <v>3.343885534808161e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>60</v>
+        <v>59.7375</v>
       </c>
       <c r="AH10" t="n">
-        <v>3595927.697191179</v>
+        <v>3961091.688384168</v>
       </c>
     </row>
     <row r="11">
@@ -21492,28 +21492,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2918.660987210576</v>
+        <v>3213.704658038401</v>
       </c>
       <c r="AB11" t="n">
-        <v>3993.44072493691</v>
+        <v>4397.13249177167</v>
       </c>
       <c r="AC11" t="n">
-        <v>3612.312346978039</v>
+        <v>3977.476338171028</v>
       </c>
       <c r="AD11" t="n">
-        <v>2918660.987210575</v>
+        <v>3213704.658038401</v>
       </c>
       <c r="AE11" t="n">
-        <v>3993440.72493691</v>
+        <v>4397132.49177167</v>
       </c>
       <c r="AF11" t="n">
         <v>3.343885534808161e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>60</v>
+        <v>59.7375</v>
       </c>
       <c r="AH11" t="n">
-        <v>3612312.346978039</v>
+        <v>3977476.338171028</v>
       </c>
     </row>
   </sheetData>
@@ -21789,28 +21789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5326.245999450372</v>
+        <v>5749.219670201918</v>
       </c>
       <c r="AB2" t="n">
-        <v>7287.60475383804</v>
+        <v>7866.335990441716</v>
       </c>
       <c r="AC2" t="n">
-        <v>6592.085984348974</v>
+        <v>7115.583923985565</v>
       </c>
       <c r="AD2" t="n">
-        <v>5326245.999450373</v>
+        <v>5749219.670201918</v>
       </c>
       <c r="AE2" t="n">
-        <v>7287604.75383804</v>
+        <v>7866335.990441715</v>
       </c>
       <c r="AF2" t="n">
         <v>2.588786555232113e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>88</v>
+        <v>87.74166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6592085.984348974</v>
+        <v>7115583.923985565</v>
       </c>
     </row>
     <row r="3">
@@ -21895,28 +21895,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3447.841273453864</v>
+        <v>3776.738290711237</v>
       </c>
       <c r="AB3" t="n">
-        <v>4717.488538361587</v>
+        <v>5167.499947285492</v>
       </c>
       <c r="AC3" t="n">
-        <v>4267.258053296927</v>
+        <v>4674.321004948098</v>
       </c>
       <c r="AD3" t="n">
-        <v>3447841.273453864</v>
+        <v>3776738.290711237</v>
       </c>
       <c r="AE3" t="n">
-        <v>4717488.538361587</v>
+        <v>5167499.947285493</v>
       </c>
       <c r="AF3" t="n">
         <v>3.321431139403931e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>69</v>
+        <v>68.3875</v>
       </c>
       <c r="AH3" t="n">
-        <v>4267258.053296926</v>
+        <v>4674321.004948097</v>
       </c>
     </row>
     <row r="4">
@@ -22001,28 +22001,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2982.438998568662</v>
+        <v>3292.601468896446</v>
       </c>
       <c r="AB4" t="n">
-        <v>4080.70461376433</v>
+        <v>4505.082589069293</v>
       </c>
       <c r="AC4" t="n">
-        <v>3691.247892731405</v>
+        <v>4075.123829691475</v>
       </c>
       <c r="AD4" t="n">
-        <v>2982438.998568662</v>
+        <v>3292601.468896445</v>
       </c>
       <c r="AE4" t="n">
-        <v>4080704.61376433</v>
+        <v>4505082.589069293</v>
       </c>
       <c r="AF4" t="n">
         <v>3.574367960129915e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>64</v>
+        <v>63.55</v>
       </c>
       <c r="AH4" t="n">
-        <v>3691247.892731404</v>
+        <v>4075123.829691475</v>
       </c>
     </row>
     <row r="5">
@@ -22107,28 +22107,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2736.690915161076</v>
+        <v>3028.018364362642</v>
       </c>
       <c r="AB5" t="n">
-        <v>3744.461244405776</v>
+        <v>4143.068312863361</v>
       </c>
       <c r="AC5" t="n">
-        <v>3387.095118623912</v>
+        <v>3747.659687916423</v>
       </c>
       <c r="AD5" t="n">
-        <v>2736690.915161076</v>
+        <v>3028018.364362642</v>
       </c>
       <c r="AE5" t="n">
-        <v>3744461.244405776</v>
+        <v>4143068.312863361</v>
       </c>
       <c r="AF5" t="n">
         <v>3.703016860326752e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>62</v>
+        <v>61.33750000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>3387095.118623912</v>
+        <v>3747659.687916423</v>
       </c>
     </row>
     <row r="6">
@@ -22213,28 +22213,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2638.307829143534</v>
+        <v>2929.702598152805</v>
       </c>
       <c r="AB6" t="n">
-        <v>3609.84916576114</v>
+        <v>4008.548344149565</v>
       </c>
       <c r="AC6" t="n">
-        <v>3265.330227835885</v>
+        <v>3625.978116216715</v>
       </c>
       <c r="AD6" t="n">
-        <v>2638307.829143534</v>
+        <v>2929702.598152805</v>
       </c>
       <c r="AE6" t="n">
-        <v>3609849.16576114</v>
+        <v>4008548.344149565</v>
       </c>
       <c r="AF6" t="n">
         <v>3.748807146837491e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>61</v>
+        <v>60.59166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>3265330.227835885</v>
+        <v>3625978.116216715</v>
       </c>
     </row>
     <row r="7">
@@ -22319,28 +22319,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2646.715218744919</v>
+        <v>2938.109987754189</v>
       </c>
       <c r="AB7" t="n">
-        <v>3621.352527121606</v>
+        <v>4020.051705510031</v>
       </c>
       <c r="AC7" t="n">
-        <v>3275.735724533178</v>
+        <v>3636.383612914008</v>
       </c>
       <c r="AD7" t="n">
-        <v>2646715.218744919</v>
+        <v>2938109.987754189</v>
       </c>
       <c r="AE7" t="n">
-        <v>3621352.527121606</v>
+        <v>4020051.705510031</v>
       </c>
       <c r="AF7" t="n">
         <v>3.752077881588258e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>61</v>
+        <v>60.53749999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>3275735.724533178</v>
+        <v>3636383.612914008</v>
       </c>
     </row>
   </sheetData>
@@ -41757,28 +41757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4031.099992129814</v>
+        <v>4412.576325415997</v>
       </c>
       <c r="AB2" t="n">
-        <v>5515.528848812692</v>
+        <v>6037.481597562934</v>
       </c>
       <c r="AC2" t="n">
-        <v>4989.134516575158</v>
+        <v>5461.272827549941</v>
       </c>
       <c r="AD2" t="n">
-        <v>4031099.992129814</v>
+        <v>4412576.325415998</v>
       </c>
       <c r="AE2" t="n">
-        <v>5515528.848812692</v>
+        <v>6037481.597562933</v>
       </c>
       <c r="AF2" t="n">
         <v>3.203620759425182e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>79.61666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4989134.516575159</v>
+        <v>5461272.827549941</v>
       </c>
     </row>
     <row r="3">
@@ -41863,28 +41863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2815.110753954161</v>
+        <v>3131.343830090293</v>
       </c>
       <c r="AB3" t="n">
-        <v>3851.758727481601</v>
+        <v>4284.442773469773</v>
       </c>
       <c r="AC3" t="n">
-        <v>3484.152280507939</v>
+        <v>3875.541568422856</v>
       </c>
       <c r="AD3" t="n">
-        <v>2815110.753954161</v>
+        <v>3131343.830090293</v>
       </c>
       <c r="AE3" t="n">
-        <v>3851758.727481601</v>
+        <v>4284442.773469773</v>
       </c>
       <c r="AF3" t="n">
         <v>3.899687414014602e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>66</v>
+        <v>65.41250000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>3484152.280507939</v>
+        <v>3875541.568422855</v>
       </c>
     </row>
     <row r="4">
@@ -41969,28 +41969,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2470.766159417185</v>
+        <v>2768.488785944497</v>
       </c>
       <c r="AB4" t="n">
-        <v>3380.611261824728</v>
+        <v>3787.968494034708</v>
       </c>
       <c r="AC4" t="n">
-        <v>3057.970467713753</v>
+        <v>3426.450097411065</v>
       </c>
       <c r="AD4" t="n">
-        <v>2470766.159417185</v>
+        <v>2768488.785944497</v>
       </c>
       <c r="AE4" t="n">
-        <v>3380611.261824728</v>
+        <v>3787968.494034708</v>
       </c>
       <c r="AF4" t="n">
         <v>4.123138890641812e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>62</v>
+        <v>61.86666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3057970.467713753</v>
+        <v>3426450.097411065</v>
       </c>
     </row>
     <row r="5">
@@ -42075,28 +42075,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2451.253494872589</v>
+        <v>2748.976121399901</v>
       </c>
       <c r="AB5" t="n">
-        <v>3353.913173356806</v>
+        <v>3761.270405566786</v>
       </c>
       <c r="AC5" t="n">
-        <v>3033.820407338208</v>
+        <v>3402.30003703552</v>
       </c>
       <c r="AD5" t="n">
-        <v>2451253.494872589</v>
+        <v>2748976.121399901</v>
       </c>
       <c r="AE5" t="n">
-        <v>3353913.173356806</v>
+        <v>3761270.405566786</v>
       </c>
       <c r="AF5" t="n">
         <v>4.143341352912216e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>62</v>
+        <v>61.5625</v>
       </c>
       <c r="AH5" t="n">
-        <v>3033820.407338209</v>
+        <v>3402300.03703552</v>
       </c>
     </row>
     <row r="6">
@@ -42181,28 +42181,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2467.035235461718</v>
+        <v>2764.757861989031</v>
       </c>
       <c r="AB6" t="n">
-        <v>3375.50644707211</v>
+        <v>3782.863679282092</v>
       </c>
       <c r="AC6" t="n">
-        <v>3053.352849316474</v>
+        <v>3421.832479013785</v>
       </c>
       <c r="AD6" t="n">
-        <v>2467035.235461718</v>
+        <v>2764757.861989031</v>
       </c>
       <c r="AE6" t="n">
-        <v>3375506.44707211</v>
+        <v>3782863.679282092</v>
       </c>
       <c r="AF6" t="n">
         <v>4.143341352912216e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>62</v>
+        <v>61.5625</v>
       </c>
       <c r="AH6" t="n">
-        <v>3053352.849316474</v>
+        <v>3421832.479013785</v>
       </c>
     </row>
   </sheetData>
@@ -42478,28 +42478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2218.624471371223</v>
+        <v>2537.57469613379</v>
       </c>
       <c r="AB2" t="n">
-        <v>3035.619880534019</v>
+        <v>3472.021649145016</v>
       </c>
       <c r="AC2" t="n">
-        <v>2745.904579654999</v>
+        <v>3140.656775963475</v>
       </c>
       <c r="AD2" t="n">
-        <v>2218624.471371223</v>
+        <v>2537574.69613379</v>
       </c>
       <c r="AE2" t="n">
-        <v>3035619.880534019</v>
+        <v>3472021.649145016</v>
       </c>
       <c r="AF2" t="n">
         <v>5.001425871134558e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.45833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2745904.579654999</v>
+        <v>3140656.775963475</v>
       </c>
     </row>
     <row r="3">
@@ -42584,28 +42584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2125.878815893296</v>
+        <v>2435.812810430161</v>
       </c>
       <c r="AB3" t="n">
-        <v>2908.721183059399</v>
+        <v>3332.786547707753</v>
       </c>
       <c r="AC3" t="n">
-        <v>2631.11691576403</v>
+        <v>3014.710077189698</v>
       </c>
       <c r="AD3" t="n">
-        <v>2125878.815893296</v>
+        <v>2435812.810430161</v>
       </c>
       <c r="AE3" t="n">
-        <v>2908721.183059399</v>
+        <v>3332786.547707753</v>
       </c>
       <c r="AF3" t="n">
         <v>5.121259290096499e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>66</v>
+        <v>65.87916666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>2631116.91576403</v>
+        <v>3014710.077189698</v>
       </c>
     </row>
   </sheetData>
@@ -42881,28 +42881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10820.62737754082</v>
+        <v>11407.33726259095</v>
       </c>
       <c r="AB2" t="n">
-        <v>14805.25975034084</v>
+        <v>15608.02209887981</v>
       </c>
       <c r="AC2" t="n">
-        <v>13392.26653908032</v>
+        <v>14118.41437575873</v>
       </c>
       <c r="AD2" t="n">
-        <v>10820627.37754082</v>
+        <v>11407337.26259095</v>
       </c>
       <c r="AE2" t="n">
-        <v>14805259.75034084</v>
+        <v>15608022.09887981</v>
       </c>
       <c r="AF2" t="n">
         <v>1.538927389726429e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>118</v>
+        <v>117.7833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>13392266.53908032</v>
+        <v>14118414.37575873</v>
       </c>
     </row>
     <row r="3">
@@ -42987,28 +42987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5342.569856265641</v>
+        <v>5727.318933116768</v>
       </c>
       <c r="AB3" t="n">
-        <v>7309.939774890428</v>
+        <v>7836.37043576948</v>
       </c>
       <c r="AC3" t="n">
-        <v>6612.28938233952</v>
+        <v>7088.478239794328</v>
       </c>
       <c r="AD3" t="n">
-        <v>5342569.856265641</v>
+        <v>5727318.933116768</v>
       </c>
       <c r="AE3" t="n">
-        <v>7309939.774890428</v>
+        <v>7836370.43576948</v>
       </c>
       <c r="AF3" t="n">
         <v>2.336664199437642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>78</v>
+        <v>77.55833333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>6612289.382339519</v>
+        <v>7088478.239794328</v>
       </c>
     </row>
     <row r="4">
@@ -43093,28 +43093,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4402.911852218911</v>
+        <v>4739.525598720028</v>
       </c>
       <c r="AB4" t="n">
-        <v>6024.258238968212</v>
+        <v>6484.828017281478</v>
       </c>
       <c r="AC4" t="n">
-        <v>5449.3114877404</v>
+        <v>5865.925132825173</v>
       </c>
       <c r="AD4" t="n">
-        <v>4402911.852218911</v>
+        <v>4739525.598720028</v>
       </c>
       <c r="AE4" t="n">
-        <v>6024258.238968212</v>
+        <v>6484828.017281477</v>
       </c>
       <c r="AF4" t="n">
         <v>2.622440144901255e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>70</v>
+        <v>69.10833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>5449311.4877404</v>
+        <v>5865925.132825173</v>
       </c>
     </row>
     <row r="5">
@@ -43199,28 +43199,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3991.831612801082</v>
+        <v>4318.756593272419</v>
       </c>
       <c r="AB5" t="n">
-        <v>5461.800119816487</v>
+        <v>5909.113301009617</v>
       </c>
       <c r="AC5" t="n">
-        <v>4940.53358206561</v>
+        <v>5345.155821053643</v>
       </c>
       <c r="AD5" t="n">
-        <v>3991831.612801082</v>
+        <v>4318756.59327242</v>
       </c>
       <c r="AE5" t="n">
-        <v>5461800.119816488</v>
+        <v>5909113.301009618</v>
       </c>
       <c r="AF5" t="n">
         <v>2.770330284106169e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>66</v>
+        <v>65.41666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>4940533.58206561</v>
+        <v>5345155.821053643</v>
       </c>
     </row>
     <row r="6">
@@ -43305,28 +43305,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3751.620359712036</v>
+        <v>4059.372800636501</v>
       </c>
       <c r="AB6" t="n">
-        <v>5133.132485967475</v>
+        <v>5554.212952719824</v>
       </c>
       <c r="AC6" t="n">
-        <v>4643.233525903238</v>
+        <v>5024.126663898874</v>
       </c>
       <c r="AD6" t="n">
-        <v>3751620.359712036</v>
+        <v>4059372.800636502</v>
       </c>
       <c r="AE6" t="n">
-        <v>5133132.485967475</v>
+        <v>5554212.952719824</v>
       </c>
       <c r="AF6" t="n">
         <v>2.860804251619763e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>64</v>
+        <v>63.34999999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>4643233.525903238</v>
+        <v>5024126.663898874</v>
       </c>
     </row>
     <row r="7">
@@ -43411,28 +43411,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3591.634108998529</v>
+        <v>3899.352384504214</v>
       </c>
       <c r="AB7" t="n">
-        <v>4914.232239645996</v>
+        <v>5335.265959765098</v>
       </c>
       <c r="AC7" t="n">
-        <v>4445.224811862264</v>
+        <v>4826.075664657719</v>
       </c>
       <c r="AD7" t="n">
-        <v>3591634.108998529</v>
+        <v>3899352.384504213</v>
       </c>
       <c r="AE7" t="n">
-        <v>4914232.239645996</v>
+        <v>5335265.959765098</v>
       </c>
       <c r="AF7" t="n">
         <v>2.921265220294714e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>63</v>
+        <v>62.04166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>4445224.811862264</v>
+        <v>4826075.664657719</v>
       </c>
     </row>
     <row r="8">
@@ -43517,28 +43517,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3460.077092485946</v>
+        <v>3758.209098218194</v>
       </c>
       <c r="AB8" t="n">
-        <v>4734.230125767518</v>
+        <v>5142.147488666229</v>
       </c>
       <c r="AC8" t="n">
-        <v>4282.401847097801</v>
+        <v>4651.388149397058</v>
       </c>
       <c r="AD8" t="n">
-        <v>3460077.092485946</v>
+        <v>3758209.098218193</v>
       </c>
       <c r="AE8" t="n">
-        <v>4734230.125767518</v>
+        <v>5142147.488666229</v>
       </c>
       <c r="AF8" t="n">
         <v>2.965632262056188e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>62</v>
+        <v>61.10833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>4282401.847097801</v>
+        <v>4651388.149397057</v>
       </c>
     </row>
     <row r="9">
@@ -43623,28 +43623,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3341.067368363908</v>
+        <v>3639.165208677376</v>
       </c>
       <c r="AB9" t="n">
-        <v>4571.395770885259</v>
+        <v>4979.266387150723</v>
       </c>
       <c r="AC9" t="n">
-        <v>4135.108174506059</v>
+        <v>4504.052191605136</v>
       </c>
       <c r="AD9" t="n">
-        <v>3341067.368363908</v>
+        <v>3639165.208677376</v>
       </c>
       <c r="AE9" t="n">
-        <v>4571395.77088526</v>
+        <v>4979266.387150723</v>
       </c>
       <c r="AF9" t="n">
         <v>3.001734854862094e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>61</v>
+        <v>60.375</v>
       </c>
       <c r="AH9" t="n">
-        <v>4135108.174506059</v>
+        <v>4504052.191605136</v>
       </c>
     </row>
     <row r="10">
@@ -43729,28 +43729,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3235.73609087588</v>
+        <v>3533.901250997053</v>
       </c>
       <c r="AB10" t="n">
-        <v>4427.276870138131</v>
+        <v>4835.239596334435</v>
       </c>
       <c r="AC10" t="n">
-        <v>4004.743779374094</v>
+        <v>4373.77111556149</v>
       </c>
       <c r="AD10" t="n">
-        <v>3235736.09087588</v>
+        <v>3533901.250997053</v>
       </c>
       <c r="AE10" t="n">
-        <v>4427276.870138131</v>
+        <v>4835239.596334435</v>
       </c>
       <c r="AF10" t="n">
         <v>3.02957299871243e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>60</v>
+        <v>59.82500000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>4004743.779374094</v>
+        <v>4373771.11556149</v>
       </c>
     </row>
     <row r="11">
@@ -43835,28 +43835,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3165.679068149057</v>
+        <v>3463.742743043744</v>
       </c>
       <c r="AB11" t="n">
-        <v>4331.421760945574</v>
+        <v>4739.245630577788</v>
       </c>
       <c r="AC11" t="n">
-        <v>3918.036947269386</v>
+        <v>4286.938679168283</v>
       </c>
       <c r="AD11" t="n">
-        <v>3165679.068149058</v>
+        <v>3463742.743043744</v>
       </c>
       <c r="AE11" t="n">
-        <v>4331421.760945573</v>
+        <v>4739245.630577788</v>
       </c>
       <c r="AF11" t="n">
         <v>3.048711722609537e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>60</v>
+        <v>59.44583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>3918036.947269387</v>
+        <v>4286938.679168283</v>
       </c>
     </row>
     <row r="12">
@@ -43941,28 +43941,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3141.31531804364</v>
+        <v>3429.826888583671</v>
       </c>
       <c r="AB12" t="n">
-        <v>4298.086203198544</v>
+        <v>4692.840462243616</v>
       </c>
       <c r="AC12" t="n">
-        <v>3887.882888366986</v>
+        <v>4244.962354969863</v>
       </c>
       <c r="AD12" t="n">
-        <v>3141315.31804364</v>
+        <v>3429826.888583671</v>
       </c>
       <c r="AE12" t="n">
-        <v>4298086.203198545</v>
+        <v>4692840.462243616</v>
       </c>
       <c r="AF12" t="n">
         <v>3.055236287574459e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>60</v>
+        <v>59.32083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>3887882.888366986</v>
+        <v>4244962.354969863</v>
       </c>
     </row>
     <row r="13">
@@ -44047,28 +44047,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3147.215259573918</v>
+        <v>3435.726830113949</v>
       </c>
       <c r="AB13" t="n">
-        <v>4306.15876348732</v>
+        <v>4700.913022532392</v>
       </c>
       <c r="AC13" t="n">
-        <v>3895.185014831711</v>
+        <v>4252.264481434589</v>
       </c>
       <c r="AD13" t="n">
-        <v>3147215.259573917</v>
+        <v>3435726.830113949</v>
       </c>
       <c r="AE13" t="n">
-        <v>4306158.76348732</v>
+        <v>4700913.022532392</v>
       </c>
       <c r="AF13" t="n">
         <v>3.056106229569782e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>60</v>
+        <v>59.30833333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>3895185.014831711</v>
+        <v>4252264.481434588</v>
       </c>
     </row>
     <row r="14">
@@ -44153,28 +44153,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3159.744311919366</v>
+        <v>3448.255882459398</v>
       </c>
       <c r="AB14" t="n">
-        <v>4323.301565649143</v>
+        <v>4718.055824694215</v>
       </c>
       <c r="AC14" t="n">
-        <v>3910.691732015283</v>
+        <v>4267.77119861816</v>
       </c>
       <c r="AD14" t="n">
-        <v>3159744.311919366</v>
+        <v>3448255.882459397</v>
       </c>
       <c r="AE14" t="n">
-        <v>4323301.565649142</v>
+        <v>4718055.824694214</v>
       </c>
       <c r="AF14" t="n">
         <v>3.056106229569782e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>60</v>
+        <v>59.30833333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>3910691.732015283</v>
+        <v>4267771.198618161</v>
       </c>
     </row>
   </sheetData>
@@ -44450,28 +44450,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>17293.57656003122</v>
+        <v>18033.36672120228</v>
       </c>
       <c r="AB2" t="n">
-        <v>23661.83438818838</v>
+        <v>24674.04792394117</v>
       </c>
       <c r="AC2" t="n">
-        <v>21403.58212377194</v>
+        <v>22319.19142032305</v>
       </c>
       <c r="AD2" t="n">
-        <v>17293576.56003122</v>
+        <v>18033366.72120228</v>
       </c>
       <c r="AE2" t="n">
-        <v>23661834.38818838</v>
+        <v>24674047.92394117</v>
       </c>
       <c r="AF2" t="n">
         <v>1.11465672278227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>147</v>
+        <v>146.9208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>21403582.12377194</v>
+        <v>22319191.42032305</v>
       </c>
     </row>
     <row r="3">
@@ -44556,28 +44556,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6790.194178555576</v>
+        <v>7218.388663962985</v>
       </c>
       <c r="AB3" t="n">
-        <v>9290.643237325387</v>
+        <v>9876.517822867303</v>
       </c>
       <c r="AC3" t="n">
-        <v>8403.957286254381</v>
+        <v>8933.9168236323</v>
       </c>
       <c r="AD3" t="n">
-        <v>6790194.178555576</v>
+        <v>7218388.663962985</v>
       </c>
       <c r="AE3" t="n">
-        <v>9290643.237325387</v>
+        <v>9876517.822867302</v>
       </c>
       <c r="AF3" t="n">
         <v>1.938072038095689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>85</v>
+        <v>84.49166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>8403957.286254382</v>
+        <v>8933916.8236323</v>
       </c>
     </row>
     <row r="4">
@@ -44662,28 +44662,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5371.421428829522</v>
+        <v>5731.564108942554</v>
       </c>
       <c r="AB4" t="n">
-        <v>7349.415769313881</v>
+        <v>7842.178872618263</v>
       </c>
       <c r="AC4" t="n">
-        <v>6647.997843260104</v>
+        <v>7093.732327582455</v>
       </c>
       <c r="AD4" t="n">
-        <v>5371421.428829523</v>
+        <v>5731564.108942554</v>
       </c>
       <c r="AE4" t="n">
-        <v>7349415.769313881</v>
+        <v>7842178.872618263</v>
       </c>
       <c r="AF4" t="n">
         <v>2.239532442317834e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>74</v>
+        <v>73.12916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>6647997.843260104</v>
+        <v>7093732.327582454</v>
       </c>
     </row>
     <row r="5">
@@ -44768,28 +44768,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4790.813110536625</v>
+        <v>5131.448967644957</v>
       </c>
       <c r="AB5" t="n">
-        <v>6555.001853594281</v>
+        <v>7021.074861083335</v>
       </c>
       <c r="AC5" t="n">
-        <v>5929.401676689879</v>
+        <v>6350.993330481733</v>
       </c>
       <c r="AD5" t="n">
-        <v>4790813.110536625</v>
+        <v>5131448.967644957</v>
       </c>
       <c r="AE5" t="n">
-        <v>6555001.853594281</v>
+        <v>7021074.861083335</v>
       </c>
       <c r="AF5" t="n">
         <v>2.399106007003871e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>69</v>
+        <v>68.26666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>5929401.676689878</v>
+        <v>6350993.330481733</v>
       </c>
     </row>
     <row r="6">
@@ -44874,28 +44874,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4470.854842520655</v>
+        <v>4801.821690643731</v>
       </c>
       <c r="AB6" t="n">
-        <v>6117.220835732247</v>
+        <v>6570.064278561103</v>
       </c>
       <c r="AC6" t="n">
-        <v>5533.401864743096</v>
+        <v>5943.026564958112</v>
       </c>
       <c r="AD6" t="n">
-        <v>4470854.842520654</v>
+        <v>4801821.690643731</v>
       </c>
       <c r="AE6" t="n">
-        <v>6117220.835732247</v>
+        <v>6570064.278561102</v>
       </c>
       <c r="AF6" t="n">
         <v>2.49657951449682e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>66</v>
+        <v>65.59166666666665</v>
       </c>
       <c r="AH6" t="n">
-        <v>5533401.864743096</v>
+        <v>5943026.564958112</v>
       </c>
     </row>
     <row r="7">
@@ -44980,28 +44980,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4258.746633667572</v>
+        <v>4579.97715299769</v>
       </c>
       <c r="AB7" t="n">
-        <v>5827.005026825693</v>
+        <v>6266.526795063508</v>
       </c>
       <c r="AC7" t="n">
-        <v>5270.883845318147</v>
+        <v>5668.458272868005</v>
       </c>
       <c r="AD7" t="n">
-        <v>4258746.633667572</v>
+        <v>4579977.152997689</v>
       </c>
       <c r="AE7" t="n">
-        <v>5827005.026825693</v>
+        <v>6266526.795063508</v>
       </c>
       <c r="AF7" t="n">
         <v>2.563002993393224e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>64</v>
+        <v>63.89583333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>5270883.845318147</v>
+        <v>5668458.272868006</v>
       </c>
     </row>
     <row r="8">
@@ -45086,28 +45086,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4107.604054857558</v>
+        <v>4428.800408768893</v>
       </c>
       <c r="AB8" t="n">
-        <v>5620.20508255784</v>
+        <v>6059.680104162408</v>
       </c>
       <c r="AC8" t="n">
-        <v>5083.820597485684</v>
+        <v>5481.352739835361</v>
       </c>
       <c r="AD8" t="n">
-        <v>4107604.054857559</v>
+        <v>4428800.408768893</v>
       </c>
       <c r="AE8" t="n">
-        <v>5620205.08255784</v>
+        <v>6059680.104162408</v>
       </c>
       <c r="AF8" t="n">
         <v>2.611739747139699e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>63</v>
+        <v>62.70416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>5083820.597485684</v>
+        <v>5481352.739835361</v>
       </c>
     </row>
     <row r="9">
@@ -45192,28 +45192,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3982.237641044719</v>
+        <v>4293.731831581876</v>
       </c>
       <c r="AB9" t="n">
-        <v>5448.673224403268</v>
+        <v>5874.873318050046</v>
       </c>
       <c r="AC9" t="n">
-        <v>4928.659499126916</v>
+        <v>5314.183654011615</v>
       </c>
       <c r="AD9" t="n">
-        <v>3982237.641044719</v>
+        <v>4293731.831581876</v>
       </c>
       <c r="AE9" t="n">
-        <v>5448673.224403269</v>
+        <v>5874873.318050046</v>
       </c>
       <c r="AF9" t="n">
         <v>2.649864465796215e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>62</v>
+        <v>61.79999999999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>4928659.499126916</v>
+        <v>5314183.654011615</v>
       </c>
     </row>
     <row r="10">
@@ -45298,28 +45298,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3889.960931982073</v>
+        <v>4191.685639337346</v>
       </c>
       <c r="AB10" t="n">
-        <v>5322.416160102661</v>
+        <v>5735.249215860802</v>
       </c>
       <c r="AC10" t="n">
-        <v>4814.452231840259</v>
+        <v>5187.885080171661</v>
       </c>
       <c r="AD10" t="n">
-        <v>3889960.931982073</v>
+        <v>4191685.639337346</v>
       </c>
       <c r="AE10" t="n">
-        <v>5322416.160102661</v>
+        <v>5735249.215860802</v>
       </c>
       <c r="AF10" t="n">
         <v>2.678949302709434e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>62</v>
+        <v>61.13333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>4814452.231840258</v>
+        <v>5187885.080171661</v>
       </c>
     </row>
     <row r="11">
@@ -45404,28 +45404,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3801.513540328977</v>
+        <v>4103.305567491953</v>
       </c>
       <c r="AB11" t="n">
-        <v>5201.398536819357</v>
+        <v>5614.323702508342</v>
       </c>
       <c r="AC11" t="n">
-        <v>4704.984360673818</v>
+        <v>5078.50052809354</v>
       </c>
       <c r="AD11" t="n">
-        <v>3801513.540328977</v>
+        <v>4103305.567491953</v>
       </c>
       <c r="AE11" t="n">
-        <v>5201398.536819357</v>
+        <v>5614323.702508342</v>
       </c>
       <c r="AF11" t="n">
         <v>2.701745526236011e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>61</v>
+        <v>60.6125</v>
       </c>
       <c r="AH11" t="n">
-        <v>4704984.360673818</v>
+        <v>5078500.52809354</v>
       </c>
     </row>
     <row r="12">
@@ -45510,28 +45510,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3719.574882542709</v>
+        <v>4021.265424479201</v>
       </c>
       <c r="AB12" t="n">
-        <v>5089.286450357724</v>
+        <v>5502.072759482618</v>
       </c>
       <c r="AC12" t="n">
-        <v>4603.572094393785</v>
+        <v>4976.962657525008</v>
       </c>
       <c r="AD12" t="n">
-        <v>3719574.882542709</v>
+        <v>4021265.424479201</v>
       </c>
       <c r="AE12" t="n">
-        <v>5089286.450357724</v>
+        <v>5502072.759482617</v>
       </c>
       <c r="AF12" t="n">
         <v>2.721790481405932e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>61</v>
+        <v>60.16249999999999</v>
       </c>
       <c r="AH12" t="n">
-        <v>4603572.094393785</v>
+        <v>4976962.657525008</v>
       </c>
     </row>
     <row r="13">
@@ -45616,28 +45616,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3649.237326618673</v>
+        <v>3950.99518836287</v>
       </c>
       <c r="AB13" t="n">
-        <v>4993.04750326849</v>
+        <v>5405.925922324224</v>
       </c>
       <c r="AC13" t="n">
-        <v>4516.51805734254</v>
+        <v>4889.99193956208</v>
       </c>
       <c r="AD13" t="n">
-        <v>3649237.326618673</v>
+        <v>3950995.188362869</v>
       </c>
       <c r="AE13" t="n">
-        <v>4993047.50326849</v>
+        <v>5405925.922324224</v>
       </c>
       <c r="AF13" t="n">
         <v>2.737905053209201e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>60</v>
+        <v>59.8125</v>
       </c>
       <c r="AH13" t="n">
-        <v>4516518.05734254</v>
+        <v>4889991.93956208</v>
       </c>
     </row>
     <row r="14">
@@ -45722,28 +45722,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3591.588320205068</v>
+        <v>3893.346181949265</v>
       </c>
       <c r="AB14" t="n">
-        <v>4914.169589398724</v>
+        <v>5327.048008454459</v>
       </c>
       <c r="AC14" t="n">
-        <v>4445.168140866662</v>
+        <v>4818.642023086203</v>
       </c>
       <c r="AD14" t="n">
-        <v>3591588.320205068</v>
+        <v>3893346.181949264</v>
       </c>
       <c r="AE14" t="n">
-        <v>4914169.589398724</v>
+        <v>5327048.008454459</v>
       </c>
       <c r="AF14" t="n">
         <v>2.75087531831915e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>60</v>
+        <v>59.52916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>4445168.140866661</v>
+        <v>4818642.023086203</v>
       </c>
     </row>
     <row r="15">
@@ -45828,28 +45828,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3527.779145242876</v>
+        <v>3819.767523805188</v>
       </c>
       <c r="AB15" t="n">
-        <v>4826.863061153326</v>
+        <v>5226.374442320427</v>
       </c>
       <c r="AC15" t="n">
-        <v>4366.194025141524</v>
+        <v>4727.576600807768</v>
       </c>
       <c r="AD15" t="n">
-        <v>3527779.145242875</v>
+        <v>3819767.523805188</v>
       </c>
       <c r="AE15" t="n">
-        <v>4826863.061153326</v>
+        <v>5226374.442320427</v>
       </c>
       <c r="AF15" t="n">
         <v>2.763452545092434e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>60</v>
+        <v>59.25833333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>4366194.025141524</v>
+        <v>4727576.600807768</v>
       </c>
     </row>
     <row r="16">
@@ -45934,28 +45934,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>3476.312650362846</v>
+        <v>3768.301028925159</v>
       </c>
       <c r="AB16" t="n">
-        <v>4756.444332316957</v>
+        <v>5155.95571348406</v>
       </c>
       <c r="AC16" t="n">
-        <v>4302.495960951996</v>
+        <v>4663.87853661824</v>
       </c>
       <c r="AD16" t="n">
-        <v>3476312.650362846</v>
+        <v>3768301.028925159</v>
       </c>
       <c r="AE16" t="n">
-        <v>4756444.332316957</v>
+        <v>5155955.71348406</v>
       </c>
       <c r="AF16" t="n">
         <v>2.772885465172397e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>60</v>
+        <v>59.05833333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>4302495.960951996</v>
+        <v>4663878.53661824</v>
       </c>
     </row>
     <row r="17">
@@ -46040,28 +46040,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>3462.387275540773</v>
+        <v>3754.375654103086</v>
       </c>
       <c r="AB17" t="n">
-        <v>4737.391020141218</v>
+        <v>5136.902401308321</v>
       </c>
       <c r="AC17" t="n">
-        <v>4285.261070148817</v>
+        <v>4646.643645815061</v>
       </c>
       <c r="AD17" t="n">
-        <v>3462387.275540773</v>
+        <v>3754375.654103086</v>
       </c>
       <c r="AE17" t="n">
-        <v>4737391.020141218</v>
+        <v>5136902.40130832</v>
       </c>
       <c r="AF17" t="n">
         <v>2.775243695192387e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>60</v>
+        <v>59.00416666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>4285261.070148817</v>
+        <v>4646643.645815061</v>
       </c>
     </row>
     <row r="18">
@@ -46146,28 +46146,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>3464.053165183422</v>
+        <v>3765.776861508838</v>
       </c>
       <c r="AB18" t="n">
-        <v>4739.670363844153</v>
+        <v>5152.502036266642</v>
       </c>
       <c r="AC18" t="n">
-        <v>4287.322876487823</v>
+        <v>4660.754473507184</v>
       </c>
       <c r="AD18" t="n">
-        <v>3464053.165183422</v>
+        <v>3765776.861508837</v>
       </c>
       <c r="AE18" t="n">
-        <v>4739670.363844153</v>
+        <v>5152502.036266642</v>
       </c>
       <c r="AF18" t="n">
         <v>2.776815848539048e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>59</v>
+        <v>58.97499999999999</v>
       </c>
       <c r="AH18" t="n">
-        <v>4287322.876487823</v>
+        <v>4660754.473507185</v>
       </c>
     </row>
     <row r="19">
@@ -46252,28 +46252,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>3475.49013628069</v>
+        <v>3777.213832606106</v>
       </c>
       <c r="AB19" t="n">
-        <v>4755.318932262991</v>
+        <v>5168.15060468548</v>
       </c>
       <c r="AC19" t="n">
-        <v>4301.477967499671</v>
+        <v>4674.909564519032</v>
       </c>
       <c r="AD19" t="n">
-        <v>3475490.13628069</v>
+        <v>3777213.832606106</v>
       </c>
       <c r="AE19" t="n">
-        <v>4755318.932262991</v>
+        <v>5168150.60468548</v>
       </c>
       <c r="AF19" t="n">
         <v>2.776815848539048e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>59</v>
+        <v>58.97916666666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>4301477.967499671</v>
+        <v>4674909.564519032</v>
       </c>
     </row>
     <row r="20">
@@ -46358,28 +46358,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>3487.420909868559</v>
+        <v>3789.144606193976</v>
       </c>
       <c r="AB20" t="n">
-        <v>4771.643143034498</v>
+        <v>5184.474815456986</v>
       </c>
       <c r="AC20" t="n">
-        <v>4316.244218506318</v>
+        <v>4689.67581552568</v>
       </c>
       <c r="AD20" t="n">
-        <v>3487420.909868559</v>
+        <v>3789144.606193976</v>
       </c>
       <c r="AE20" t="n">
-        <v>4771643.143034498</v>
+        <v>5184474.815456986</v>
       </c>
       <c r="AF20" t="n">
         <v>2.776422810202383e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>59</v>
+        <v>58.98333333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>4316244.218506319</v>
+        <v>4689675.81552568</v>
       </c>
     </row>
   </sheetData>
@@ -46655,28 +46655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1993.475796022297</v>
+        <v>2318.509727482056</v>
       </c>
       <c r="AB2" t="n">
-        <v>2727.561530062914</v>
+        <v>3172.287294571364</v>
       </c>
       <c r="AC2" t="n">
-        <v>2467.246885790359</v>
+        <v>2869.528647510534</v>
       </c>
       <c r="AD2" t="n">
-        <v>1993475.796022297</v>
+        <v>2318509.727482056</v>
       </c>
       <c r="AE2" t="n">
-        <v>2727561.530062914</v>
+        <v>3172287.294571364</v>
       </c>
       <c r="AF2" t="n">
         <v>5.628836046809995e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.59166666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>2467246.885790359</v>
+        <v>2869528.647510534</v>
       </c>
     </row>
   </sheetData>
@@ -46952,19 +46952,19 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6035.919078856152</v>
+        <v>6489.051594485726</v>
       </c>
       <c r="AB2" t="n">
-        <v>8258.610769647697</v>
+        <v>8878.60666832783</v>
       </c>
       <c r="AC2" t="n">
-        <v>7470.420548825225</v>
+        <v>8031.244909105008</v>
       </c>
       <c r="AD2" t="n">
-        <v>6035919.078856152</v>
+        <v>6489051.594485726</v>
       </c>
       <c r="AE2" t="n">
-        <v>8258610.769647698</v>
+        <v>8878606.668327829</v>
       </c>
       <c r="AF2" t="n">
         <v>2.354307056570942e-06</v>
@@ -46973,7 +46973,7 @@
         <v>92</v>
       </c>
       <c r="AH2" t="n">
-        <v>7470420.548825225</v>
+        <v>8031244.909105008</v>
       </c>
     </row>
     <row r="3">
@@ -47058,28 +47058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3753.439169144066</v>
+        <v>4093.322721285028</v>
       </c>
       <c r="AB3" t="n">
-        <v>5135.621061272588</v>
+        <v>5600.664731915934</v>
       </c>
       <c r="AC3" t="n">
-        <v>4645.484595073968</v>
+        <v>5066.145150483985</v>
       </c>
       <c r="AD3" t="n">
-        <v>3753439.169144066</v>
+        <v>4093322.721285028</v>
       </c>
       <c r="AE3" t="n">
-        <v>5135621.061272589</v>
+        <v>5600664.731915934</v>
       </c>
       <c r="AF3" t="n">
         <v>3.099222493105753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>70</v>
+        <v>69.89166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4645484.595073968</v>
+        <v>5066145.150483985</v>
       </c>
     </row>
     <row r="4">
@@ -47164,28 +47164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3228.989475143144</v>
+        <v>3540.476383894858</v>
       </c>
       <c r="AB4" t="n">
-        <v>4418.045852852921</v>
+        <v>4844.235983239605</v>
       </c>
       <c r="AC4" t="n">
-        <v>3996.39375742277</v>
+        <v>4381.908899926937</v>
       </c>
       <c r="AD4" t="n">
-        <v>3228989.475143144</v>
+        <v>3540476.383894858</v>
       </c>
       <c r="AE4" t="n">
-        <v>4418045.852852921</v>
+        <v>4844235.983239605</v>
       </c>
       <c r="AF4" t="n">
         <v>3.359656989758887e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>65</v>
+        <v>64.47083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3996393.75742277</v>
+        <v>4381908.899926937</v>
       </c>
     </row>
     <row r="5">
@@ -47270,28 +47270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2968.36677726941</v>
+        <v>3261.035801137656</v>
       </c>
       <c r="AB5" t="n">
-        <v>4061.450379760106</v>
+        <v>4461.893049862738</v>
       </c>
       <c r="AC5" t="n">
-        <v>3673.831255797057</v>
+        <v>4036.056239489896</v>
       </c>
       <c r="AD5" t="n">
-        <v>2968366.77726941</v>
+        <v>3261035.801137656</v>
       </c>
       <c r="AE5" t="n">
-        <v>4061450.379760106</v>
+        <v>4461893.049862738</v>
       </c>
       <c r="AF5" t="n">
         <v>3.491693640756683e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>63</v>
+        <v>62.02916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3673831.255797056</v>
+        <v>4036056.239489896</v>
       </c>
     </row>
     <row r="6">
@@ -47376,28 +47376,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2780.936857022744</v>
+        <v>3073.639035279914</v>
       </c>
       <c r="AB6" t="n">
-        <v>3805.000494054106</v>
+        <v>4205.488527454331</v>
       </c>
       <c r="AC6" t="n">
-        <v>3441.856587253172</v>
+        <v>3804.12260483415</v>
       </c>
       <c r="AD6" t="n">
-        <v>2780936.857022744</v>
+        <v>3073639.035279914</v>
       </c>
       <c r="AE6" t="n">
-        <v>3805000.494054106</v>
+        <v>4205488.527454332</v>
       </c>
       <c r="AF6" t="n">
         <v>3.571227528956144e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>61</v>
+        <v>60.65</v>
       </c>
       <c r="AH6" t="n">
-        <v>3441856.587253172</v>
+        <v>3804122.604834151</v>
       </c>
     </row>
     <row r="7">
@@ -47482,28 +47482,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2730.383570002126</v>
+        <v>3022.984263032811</v>
       </c>
       <c r="AB7" t="n">
-        <v>3735.831256498872</v>
+        <v>4136.180433335008</v>
       </c>
       <c r="AC7" t="n">
-        <v>3379.288764650578</v>
+        <v>3741.429177943057</v>
       </c>
       <c r="AD7" t="n">
-        <v>2730383.570002127</v>
+        <v>3022984.263032811</v>
       </c>
       <c r="AE7" t="n">
-        <v>3735831.256498872</v>
+        <v>4136180.433335008</v>
       </c>
       <c r="AF7" t="n">
         <v>3.596179337018719e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>61</v>
+        <v>60.23333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3379288.764650578</v>
+        <v>3741429.177943057</v>
       </c>
     </row>
     <row r="8">
@@ -47588,28 +47588,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2741.802988152036</v>
+        <v>3034.40368118272</v>
       </c>
       <c r="AB8" t="n">
-        <v>3751.455808200752</v>
+        <v>4151.804985036889</v>
       </c>
       <c r="AC8" t="n">
-        <v>3393.422131067226</v>
+        <v>3755.562544359705</v>
       </c>
       <c r="AD8" t="n">
-        <v>2741802.988152036</v>
+        <v>3034403.68118272</v>
       </c>
       <c r="AE8" t="n">
-        <v>3751455.808200752</v>
+        <v>4151804.985036889</v>
       </c>
       <c r="AF8" t="n">
         <v>3.597218995687993e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>61</v>
+        <v>60.2125</v>
       </c>
       <c r="AH8" t="n">
-        <v>3393422.131067226</v>
+        <v>3755562.544359705</v>
       </c>
     </row>
     <row r="9">
@@ -47694,28 +47694,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2755.593603762889</v>
+        <v>3048.194296793574</v>
       </c>
       <c r="AB9" t="n">
-        <v>3770.324736878546</v>
+        <v>4170.673913714682</v>
       </c>
       <c r="AC9" t="n">
-        <v>3410.490235674717</v>
+        <v>3772.630648967197</v>
       </c>
       <c r="AD9" t="n">
-        <v>2755593.603762889</v>
+        <v>3048194.296793574</v>
       </c>
       <c r="AE9" t="n">
-        <v>3770324.736878545</v>
+        <v>4170673.913714682</v>
       </c>
       <c r="AF9" t="n">
         <v>3.596699166353356e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>61</v>
+        <v>60.21666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>3410490.235674717</v>
+        <v>3772630.648967197</v>
       </c>
     </row>
   </sheetData>
@@ -47991,28 +47991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8619.555020982572</v>
+        <v>9144.873176701465</v>
       </c>
       <c r="AB2" t="n">
-        <v>11793.65544763859</v>
+        <v>12512.41892369462</v>
       </c>
       <c r="AC2" t="n">
-        <v>10668.0855242149</v>
+        <v>11318.25122290699</v>
       </c>
       <c r="AD2" t="n">
-        <v>8619555.020982573</v>
+        <v>9144873.176701466</v>
       </c>
       <c r="AE2" t="n">
-        <v>11793655.44763859</v>
+        <v>12512418.92369462</v>
       </c>
       <c r="AF2" t="n">
         <v>1.811233082018746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>107</v>
+        <v>106.4708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>10668085.5242149</v>
+        <v>11318251.22290698</v>
       </c>
     </row>
     <row r="3">
@@ -48097,28 +48097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4687.798335773628</v>
+        <v>5050.750707195006</v>
       </c>
       <c r="AB3" t="n">
-        <v>6414.052494072425</v>
+        <v>6910.659940979717</v>
       </c>
       <c r="AC3" t="n">
-        <v>5801.904326217125</v>
+        <v>6251.116255384494</v>
       </c>
       <c r="AD3" t="n">
-        <v>4687798.335773627</v>
+        <v>5050750.707195005</v>
       </c>
       <c r="AE3" t="n">
-        <v>6414052.494072425</v>
+        <v>6910659.940979717</v>
       </c>
       <c r="AF3" t="n">
         <v>2.593493217109899e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>75</v>
+        <v>74.36666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>5801904.326217125</v>
+        <v>6251116.255384495</v>
       </c>
     </row>
     <row r="4">
@@ -48203,28 +48203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3938.962902894884</v>
+        <v>4263.729647938553</v>
       </c>
       <c r="AB4" t="n">
-        <v>5389.462818519955</v>
+        <v>5833.823006786322</v>
       </c>
       <c r="AC4" t="n">
-        <v>4875.100051278781</v>
+        <v>5277.051126840431</v>
       </c>
       <c r="AD4" t="n">
-        <v>3938962.902894884</v>
+        <v>4263729.647938553</v>
       </c>
       <c r="AE4" t="n">
-        <v>5389462.818519956</v>
+        <v>5833823.006786322</v>
       </c>
       <c r="AF4" t="n">
         <v>2.867515702301593e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>68</v>
+        <v>67.25416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>4875100.051278781</v>
+        <v>5277051.12684043</v>
       </c>
     </row>
     <row r="5">
@@ -48309,28 +48309,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3597.220356240343</v>
+        <v>3912.397987916109</v>
       </c>
       <c r="AB5" t="n">
-        <v>4921.875589570082</v>
+        <v>5353.115529884659</v>
       </c>
       <c r="AC5" t="n">
-        <v>4452.138691197103</v>
+        <v>4842.221696857098</v>
       </c>
       <c r="AD5" t="n">
-        <v>3597220.356240343</v>
+        <v>3912397.987916109</v>
       </c>
       <c r="AE5" t="n">
-        <v>4921875.589570082</v>
+        <v>5353115.529884659</v>
       </c>
       <c r="AF5" t="n">
         <v>3.010544330551987e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>65</v>
+        <v>64.0625</v>
       </c>
       <c r="AH5" t="n">
-        <v>4452138.691197103</v>
+        <v>4842221.696857098</v>
       </c>
     </row>
     <row r="6">
@@ -48415,28 +48415,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3383.496066712798</v>
+        <v>3689.118750439442</v>
       </c>
       <c r="AB6" t="n">
-        <v>4629.448587788278</v>
+        <v>5047.615026784312</v>
       </c>
       <c r="AC6" t="n">
-        <v>4187.620512041492</v>
+        <v>4565.877733000011</v>
       </c>
       <c r="AD6" t="n">
-        <v>3383496.066712798</v>
+        <v>3689118.750439442</v>
       </c>
       <c r="AE6" t="n">
-        <v>4629448.587788278</v>
+        <v>5047615.026784312</v>
       </c>
       <c r="AF6" t="n">
         <v>3.097564984633134e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>63</v>
+        <v>62.26250000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>4187620.512041491</v>
+        <v>4565877.733000011</v>
       </c>
     </row>
     <row r="7">
@@ -48521,28 +48521,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3230.037983257952</v>
+        <v>3526.139884454255</v>
       </c>
       <c r="AB7" t="n">
-        <v>4419.480467912513</v>
+        <v>4824.620152223251</v>
       </c>
       <c r="AC7" t="n">
-        <v>3997.69145483457</v>
+        <v>4364.165176291795</v>
       </c>
       <c r="AD7" t="n">
-        <v>3230037.983257952</v>
+        <v>3526139.884454255</v>
       </c>
       <c r="AE7" t="n">
-        <v>4419480.467912513</v>
+        <v>4824620.152223252</v>
       </c>
       <c r="AF7" t="n">
         <v>3.157275965359026e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>62</v>
+        <v>61.08333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>3997691.45483457</v>
+        <v>4364165.176291795</v>
       </c>
     </row>
     <row r="8">
@@ -48627,28 +48627,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3105.668918629332</v>
+        <v>3401.736654406855</v>
       </c>
       <c r="AB8" t="n">
-        <v>4249.313226911731</v>
+        <v>4654.406164589222</v>
       </c>
       <c r="AC8" t="n">
-        <v>3843.764736483687</v>
+        <v>4210.196172740732</v>
       </c>
       <c r="AD8" t="n">
-        <v>3105668.918629332</v>
+        <v>3401736.654406854</v>
       </c>
       <c r="AE8" t="n">
-        <v>4249313.226911731</v>
+        <v>4654406.164589223</v>
       </c>
       <c r="AF8" t="n">
         <v>3.199397664940858e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>61</v>
+        <v>60.27916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>3843764.736483687</v>
+        <v>4210196.172740731</v>
       </c>
     </row>
     <row r="9">
@@ -48733,28 +48733,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3000.487199763842</v>
+        <v>3296.622255349069</v>
       </c>
       <c r="AB9" t="n">
-        <v>4105.39895887002</v>
+        <v>4510.584006478352</v>
       </c>
       <c r="AC9" t="n">
-        <v>3713.585444198937</v>
+        <v>4080.100199544301</v>
       </c>
       <c r="AD9" t="n">
-        <v>3000487.199763842</v>
+        <v>3296622.255349069</v>
       </c>
       <c r="AE9" t="n">
-        <v>4105398.95887002</v>
+        <v>4510584.006478352</v>
       </c>
       <c r="AF9" t="n">
         <v>3.229021717394014e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>60</v>
+        <v>59.725</v>
       </c>
       <c r="AH9" t="n">
-        <v>3713585.444198937</v>
+        <v>4080100.199544301</v>
       </c>
     </row>
     <row r="10">
@@ -48839,28 +48839,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2975.96387480258</v>
+        <v>3272.098930387807</v>
       </c>
       <c r="AB10" t="n">
-        <v>4071.845063765279</v>
+        <v>4477.03011137361</v>
       </c>
       <c r="AC10" t="n">
-        <v>3683.233885749806</v>
+        <v>4049.748641095171</v>
       </c>
       <c r="AD10" t="n">
-        <v>2975963.874802581</v>
+        <v>3272098.930387807</v>
       </c>
       <c r="AE10" t="n">
-        <v>4071845.063765279</v>
+        <v>4477030.111373611</v>
       </c>
       <c r="AF10" t="n">
         <v>3.237816357966044e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>60</v>
+        <v>59.57083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3683233.885749806</v>
+        <v>4049748.641095171</v>
       </c>
     </row>
     <row r="11">
@@ -48945,28 +48945,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2987.702156842546</v>
+        <v>3283.837212427773</v>
       </c>
       <c r="AB11" t="n">
-        <v>4087.905899108815</v>
+        <v>4493.090946717147</v>
       </c>
       <c r="AC11" t="n">
-        <v>3697.761897509679</v>
+        <v>4064.276652855043</v>
       </c>
       <c r="AD11" t="n">
-        <v>2987702.156842546</v>
+        <v>3283837.212427773</v>
       </c>
       <c r="AE11" t="n">
-        <v>4087905.899108815</v>
+        <v>4493090.946717147</v>
       </c>
       <c r="AF11" t="n">
         <v>3.237353482146464e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>60</v>
+        <v>59.575</v>
       </c>
       <c r="AH11" t="n">
-        <v>3697761.897509679</v>
+        <v>4064276.652855043</v>
       </c>
     </row>
   </sheetData>
